--- a/FOREX/data/FOREX_7_historical.xlsx
+++ b/FOREX/data/FOREX_7_historical.xlsx
@@ -1,37 +1,390 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exchange Rates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Exchange Rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>Allocated Reserves</t>
+  </si>
+  <si>
+    <t>Claims in Australian dollars</t>
+  </si>
+  <si>
+    <t>Claims in Canadian dollars</t>
+  </si>
+  <si>
+    <t>Claims in Chinese renminbi</t>
+  </si>
+  <si>
+    <t>Claims in Japanese yen</t>
+  </si>
+  <si>
+    <t>Claims in Swiss francs</t>
+  </si>
+  <si>
+    <t>Claims in U.S. dollars</t>
+  </si>
+  <si>
+    <t>Claims in euro</t>
+  </si>
+  <si>
+    <t>Claims in other currencies</t>
+  </si>
+  <si>
+    <t>Claims in pounds sterling</t>
+  </si>
+  <si>
+    <t>Shares of Allocated Reserves</t>
+  </si>
+  <si>
+    <t>Shares of Australian dollars</t>
+  </si>
+  <si>
+    <t>Shares of Canadian dollars</t>
+  </si>
+  <si>
+    <t>Shares of Chinese renminbi</t>
+  </si>
+  <si>
+    <t>Shares of Japanese yen</t>
+  </si>
+  <si>
+    <t>Shares of Swiss francs</t>
+  </si>
+  <si>
+    <t>Shares of U.S. dollars</t>
+  </si>
+  <si>
+    <t>Shares of Unallocated Reserves</t>
+  </si>
+  <si>
+    <t>Shares of euro</t>
+  </si>
+  <si>
+    <t>Shares of other currencies</t>
+  </si>
+  <si>
+    <t>Shares of pounds sterling</t>
+  </si>
+  <si>
+    <t>Total Foreign Exchange Reserves</t>
+  </si>
+  <si>
+    <t>Unallocated Reserves</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +399,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,6267 +715,5669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1999Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1999Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1999Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1999Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2000Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2000Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2000Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2001Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2001Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2001Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2001Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2002Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2002Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2002Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2002Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2003Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2003Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2003Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2004Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2004Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2004Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2004Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2005Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2005Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2005Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2005Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2006Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2006Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2006Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2006Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2007Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2007Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2007Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2007Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2008Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2008Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2008Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2008Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2009Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2009Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2009Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2009Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2010Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2010Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2010Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2010Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2011Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2011Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2011Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2011Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2012Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2012Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2012Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2012Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2013Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2013Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2013Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2013Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2014Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2014Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2014Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2014Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2015Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2015Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2015Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2015Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2016Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2016Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2016Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2016Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2017Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2017Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2017Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2017Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2018Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2018Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2018Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2018Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2019Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2019Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2019Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2019Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2020Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2020Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2020Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2020Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2021Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2021Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2021Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2021Q4</t>
-        </is>
+    <row r="1" spans="1:93">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Reserves</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
         <v>1239414.424634232</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1273723.761787461</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1324244.50038278</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1379704.933663202</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1400590.71052123</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1441914.590663756</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1465549.555826211</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1518243.584377493</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1507634.452072289</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1510871.598339494</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>1581988.265336341</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>1569852.808186475</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>1576827.286514645</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>1690477.884240457</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>1741653.27924858</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>1795825.71062264</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>1845392.323089292</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>1962902.920513145</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>2060292.859668426</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>2222992.716535753</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>2428788.704640754</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>2427957.943956343</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>2477118.304714764</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>2654956.902267091</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>2692420.287010573</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>2727332.766431706</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>2760977.590819807</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>2843487.609560025</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>2936846.429146085</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>3040223.902561736</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>3143787.444082303</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>3321838.161029769</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>3518587.891177036</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>3718552.232629321</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>3898429.45123302</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>4122923.331008646</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>4385471.667765678</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>4431722.957338283</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>4360190.625155776</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>4209602.024904114</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>4081417.092340834</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>4293715.57982677</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>4457537.418611259</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>4583287.096519682</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>4662600.275604706</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>4783724.064369243</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>5108016.977342426</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>5155253.933788685</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>5339409.311899083</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>5501064.963119322</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>5592382.495407999</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>5643560.994479115</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>5706071.259974943</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>5839585.080619087</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>6015172.95346967</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>6085316.982722459</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>6081807.55291702</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>6069039.617868933</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>6189732.246283591</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>6223920.275949485</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>6955305.946019108</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>7038232.742070079</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>6914306.859229771</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>6800141.064587644</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>6745749.770175375</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>7329721.112794079</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>7244134.575302497</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>7413406.97117905</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>7763616.514246252</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>8054055.925390878</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>8351620.31020924</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>8417845.240426356</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>8832030.729909198</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>9255765.788322063</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>9641645.781849561</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>10012690.95803194</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>10399112.9147906</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>10509811.64242921</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>10705145.29726385</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>10726222.50882543</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>10892142.65449332</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>11016803.50876764</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>10922515.37438929</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>11071545.12888577</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>10945584.80915441</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>11257522.42728399</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>11459203.93532419</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>11864528.99316138</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>11730642.36030308</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>11946281.74137278</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>11970533.75259265</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>12050534.70931398</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Claims in Australian dollars</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="n">
+    <row r="3" spans="1:93">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3">
         <v>88608.50800840707</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>101077.1305162503</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>102459.7442181802</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>104113.1694424422</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>113033.2139502537</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>118566.6687292188</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>121412.2716039271</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>116285.9518215989</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>108497.8855024884</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>105039.2989270895</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>127090.2773478478</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>120017.6451061651</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>131026.2793175787</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>133669.6193666859</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>136983.3095722325</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>150195.6213265743</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>142303.3888482034</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>156281.5124304453</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>162306.0404812575</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>171247.5751541339</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>180494.3596782168</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>177440.0373136618</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>179071.1100952561</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>181092.0973990417</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>174463.0445948399</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>182462.0256226811</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>187220.8388058743</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>182991.5092569001</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>187881.6511192465</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>170007.4117186085</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>190336.2716889497</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>199506.896801371</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>216870.6477927097</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>214890.4620359521</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>218444.0176527824</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>214258.1146154655</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>218016.7642364252</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Claims in Canadian dollars</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="n">
+    <row r="4" spans="1:93">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE4">
         <v>86752.34026246867</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>96026.14235459802</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>108987.8930731259</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>113575.3935039812</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>113801.5301373849</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>121037.9425634753</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>129810.5090685056</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>123975.7162904782</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>119024.274385554</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>115389.7643740562</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>130291.9567267472</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>126357.199180843</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>131608.72446326</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>140377.591677413</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>147673.9816002065</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>159851.5475397453</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>163143.7524776961</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>167491.7737222828</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>178770.3203160557</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>192885.6005830567</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>202797.8951477268</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>193295.144908217</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>200214.506727498</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>208726.0847045831</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>197216.3279921642</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>208644.7922258199</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>209849.2899951667</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>205441.8944942812</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>205988.8019085347</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>195267.7482636439</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>215466.6476770588</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>231102.894922266</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>246567.1229793553</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>250007.1830031097</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>270007.4596759846</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>264291.9668079347</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>286929.9538521374</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Claims in Chinese renminbi</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="n">
+    <row r="5" spans="1:93">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU5">
         <v>90777.37357825261</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>95419.8342682144</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>99996.45518215635</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>108155.4095161765</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>123473.4721754404</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>145667.7381812685</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>192749.5820335999</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>192636.0601244044</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>203085.0377667097</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>212264.3605826375</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>212796.798349458</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>213826.6128584964</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>214460.8473300903</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>220331.7066424009</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>233677.918082924</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>247444.3920088799</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>271601.7482748029</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>293317.9076280459</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>314813.5743248848</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>320150.2499659339</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>336104.7351771021</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Claims in Japanese yen</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:93">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
         <v>74773.49763019066</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>71673.74498103549</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>82726.0303669</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>87938.69489827777</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>88759.48550076153</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>86467.22659573027</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>94180.46513036954</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>92078.02127468</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>83110.01499581693</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>80912.71625561145</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>85446.78570421592</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>79189.82786074118</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>69125.47648185502</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>90226.65894370696</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>89426.78346355684</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>88734.40410558994</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>83195.00360193799</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>81050.61691154416</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>89458.45181184038</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>98338.17741033084</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>108416.9429887188</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>105105.8071912512</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>100531.6932526883</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>113740.5643198277</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>114513.9601056607</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>112648.0352978864</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>113753.7685173474</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>112605.8057612736</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>106866.6135144739</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>105364.2740383473</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>104987.3565171423</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>114964.4472624143</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>110415.9378603459</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>113787.1053706523</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>114927.1484023285</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>131026.8391473747</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>147589.0036215218</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>157948.2722236987</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>153943.8157418678</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>145966.1615989167</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>113764.1139017918</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>129511.1839340638</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>140778.6864326524</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>133003.1685118085</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>139291.7436278514</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>152772.1341829069</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>178612.1009388388</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>188821.9526538195</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>193549.4765458498</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>205068.8118166295</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>206634.7118190305</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>203912.7712278524</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>219980.9693573705</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>230911.4895334207</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>256885.3676006205</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>248808.6144952248</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>236184.4180493668</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>233321.2942010751</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>235243.1837959845</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>237981.3028061823</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>249091.8743220672</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>257723.4973080066</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>246833.4917032435</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>241054.1747334944</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>258125.3585454098</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>261227.7280517153</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>252572.2058242591</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>278305.8391159085</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>284140.5822617217</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>328532.7959300862</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>349945.3190729064</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>332757.9029587685</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>399661.8022420061</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>427596.7842533627</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>435332.7490030607</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>490307.8581928378</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>482040.4682579354</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>510838.5587873241</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>531838.5165328949</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>556905.5888125426</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>577992.238717317</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>606520.3237663727</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>608714.3261442574</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>649762.8105475408</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>644366.4476582929</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>643699.4140373052</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>668187.2372529758</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>715347.5785981743</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>686295.2911704339</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>672197.7110121053</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>681422.4812614236</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>671770.7548436346</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Claims in Swiss francs</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:93">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
         <v>3571.276289787007</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3092.356768340917</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3193.2782022</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3171.864564295755</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3589.77356264325</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2924.848474697379</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>3279.12642092902</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4086.584363889536</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4131.281451353564</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>3967.162203762941</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>4149.776663193478</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>3849.549072963219</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>4902.867640814073</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>5212.490758799028</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>5575.524383574254</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>7314.160366497265</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>4437.21479083462</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>4080.302795448186</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>4668.952268164395</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>5015.670541648746</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>5463.801663269226</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>5711.05465847603</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>4178.090836400347</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>4418.59073314798</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>4578.496659750793</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>3632.657428713228</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>3987.708630868176</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>4143.063163978888</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>4710.1508275144</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>4488.598799091307</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>4964.351657510372</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>5717.076481659954</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>6040.102646714598</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>5714.392614902343</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>6252.831414225413</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>6395.144268131004</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>6601.333832514685</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>7067.77267870988</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>6461.756596842649</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>5799.366268549337</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>5647.592439399963</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>5272.977762804691</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>5309.434670610263</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>5300.188602926643</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>5542.314449979119</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>5282.717516701502</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>5211.878547320959</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>6628.492658516281</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>6310.237031364431</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>6449.32434575041</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>17024.98325454747</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>4357.200426521009</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>13952.91738568269</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>13689.76860846125</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>17803.17988678626</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>12942.49864455722</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>15830.332461388</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>15647.25490714004</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>16286.64754273864</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>16706.46645077368</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>16529.96526190699</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>17012.85112626327</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>15900.32014979515</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>16315.65340924009</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>17774.98890151901</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>21386.34557384108</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>18317.08527527509</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>19822.93785610565</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>14817.73051394827</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>14334.46412713392</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>14790.288466131</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>13694.38742003671</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>14452.11977706757</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>15600.08299167436</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>16045.20834376109</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>17603.76943063491</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>17455.85638431488</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>16720.20414559685</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>16683.45226978557</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>14782.38508554498</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>14755.3009671283</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CE7">
         <v>15018.56606413943</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CF7">
         <v>15686.45709588509</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CG7">
         <v>16564.39548659674</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CH7">
         <v>15589.513238757</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CI7">
         <v>17219.45968022097</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CJ7">
         <v>19300.44462793013</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CK7">
         <v>20738.32377522018</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CL7">
         <v>19443.60206916793</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CM7">
         <v>23130.55030858838</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CN7">
         <v>23772.73586377993</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CO7">
         <v>24505.45868017829</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Claims in U.S. dollars</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:93">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
         <v>882325.1109600967</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>918685.1317993185</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>936038.9970404101</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>979782.7161266564</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1000859.104633178</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1038479.136195928</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1059574.233348636</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1079916.476607908</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1090119.106175078</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1098434.04395729</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1129526.018538241</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1122676.343403843</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1129385.916249972</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1157784.011506064</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>1175403.270200968</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>1194245.926719021</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>1224957.678198613</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>1299888.774679371</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>1373239.252478922</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>1454944.398446721</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1629446.162014512</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>1636271.839093305</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1656885.885912035</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1739173.123163512</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1753906.445588979</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1794800.812598945</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1824345.054376494</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1891335.999377719</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>1942946.400964202</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>1997695.621259875</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>2078395.824538119</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>2160670.904379551</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>2288985.905408027</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>2412583.359082709</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>2491264.13079741</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>2633502.781910379</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>2760057.833046094</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>2773754.392042515</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>2797906.333215434</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>2684267.571281559</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>2660234.448731821</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>2696711.840106344</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>2743922.916443016</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>2848309.202381203</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>2898630.131811476</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>3010176.026565711</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>3164342.110386145</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>3208610.924876058</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>3279607.710342587</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>3349122.340789965</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>3468529.541972477</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>3538078.357940122</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>3529112.310480068</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>3606543.836032647</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>3693517.270521306</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>3741924.933096569</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>3772298.894219327</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>3767040.443693854</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>3815599.267923416</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>3813459.570407925</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>4383938.727445448</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>4439374.074354189</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>4467603.801366879</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>4431383.257346965</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>4452124.563950413</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>4785795.811998427</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>4748089.648222431</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>4873916.256924701</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>5082418.628367577</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>5253271.05821571</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>5403875.870002475</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>5501929.906245414</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>5713409.545967961</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>5909266.282950168</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>6125751.713059218</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>6280659.97292743</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="BZ8">
         <v>6530052.745296706</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CA8">
         <v>6558997.611221692</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8">
         <v>6632121.650041876</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CC8">
         <v>6624672.110847</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CD8">
         <v>6729866.237381794</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CE8">
         <v>6754399.342314948</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CF8">
         <v>6729797.580761319</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CG8">
         <v>6725710.819771754</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CH8">
         <v>6770172.916103238</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CI8">
         <v>6901673.730207369</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CJ8">
         <v>6927226.42014433</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CK8">
         <v>6990974.501415295</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CL8">
         <v>6971791.327699647</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CM8">
         <v>7070332.207891178</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CN8">
         <v>7087771.50400226</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CO8">
         <v>7087141.372003513</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Claims in euro</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:93">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
         <v>224608.50443104</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>223853.6556624</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>242702.35503122</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>246950.496655992</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>245173.1366678934</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>252549.032332835</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>248757.1079812201</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>277692.6085310365</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>266964.7631906586</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>266379.9124660659</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>299037.2374157986</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>301144.8988128427</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>310192.8954584833</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>361674.109973677</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>390610.5125823754</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>424714.7924005965</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>452430.7467066341</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>490157.1230644361</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>503723.7872232881</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>556478.8081855128</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>569203.3478590576</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>565924.6465427851</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>588745.2210693102</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>655230.1945652438</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>670428.5124784053</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>669523.4956113707</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>666068.9349903943</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>679299.1191159425</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>715735.4701510899</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>748954.7484481771</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>764105.2207085917</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>830280.9924879665</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>881967.9438286003</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>935846.7989244509</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>1013987.681601983</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>1077458.005241409</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>1164180.976521126</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>1179506.991893588</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>1103988.433711559</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>1103517.584412412</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>1053735.425296183</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>1183774.457606046</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>1249286.865651492</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>1269616.231970007</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>1261619.111270447</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>1244503.666728797</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>1347990.575872554</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>1327937.275756911</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>1398666.297732016</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>1457132.080376096</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>1417497.142086092</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>1379656.781969951</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>1404051.814081072</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>1448148.356317387</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>1445968.85399877</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>1464730.855916801</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>1423269.912199</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>1437185.436689096</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>1482237.362530428</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>1506927.580002312</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>1618174.942309973</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>1616502.982127297</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>1491912.921702973</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>1442575.818177561</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>1350655.182124495</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>1458519.209173402</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>1433795.737793719</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>1419423.444391893</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>1517958.991944162</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>1563371.430030648</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>1643313.31179362</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>1611025.860428638</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>1703274.388898153</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>1847337.858190193</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>1934824.028165674</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>2019378.262780446</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="BZ9">
         <v>2117757.199195823</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CA9">
         <v>2129515.658809978</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9">
         <v>2192353.945864675</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CC9">
         <v>2217578.019337837</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CD9">
         <v>2209020.322348506</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CE9">
         <v>2265082.712181532</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CF9">
         <v>2212927.686077059</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CG9">
         <v>2279459.182704447</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CH9">
         <v>2197398.345381604</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CI9">
         <v>2272432.339892589</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CJ9">
         <v>2359639.115487681</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CK9">
         <v>2526413.707785242</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CL9">
         <v>2404795.379894884</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CM9">
         <v>2458880.670945703</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CN9">
         <v>2462440.641540717</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CO9">
         <v>2486880.944388077</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Claims in other currencies</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:93">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
         <v>20121.33343432728</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>20845.13022835</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>22554.52612399</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>22033.79052592047</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21286.30668220475</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>21704.94973281681</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>19759.58457582284</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>22671.77034259669</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>21459.80310704782</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>21164.67408994036</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>22238.91449878116</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>20591.34826209266</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>21086.81486817819</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>27604.94523953961</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>30154.82396702425</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>28350.00428244156</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>31660.75171780455</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>36055.16048625913</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>37455.10038407335</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>44608.23747363438</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>47441.13149897857</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>45902.212963438</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>47511.03964574062</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>49659.95251183392</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>48288.63128675175</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>46741.60229564107</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>49048.99652264173</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>49545.63415807782</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>46530.61920604159</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>52339.49371960104</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>54304.63056734417</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>60047.27452877102</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>69537.68628745881</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>74198.62525803782</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>83393.47022160227</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>75647.80271363286</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>96283.32258574774</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>97476.96570634842</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>91602.60524460695</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>92506.21861324731</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>86615.47541916728</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>94565.35122115733</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>125971.3169070053</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>132153.6159584657</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>157014.1679307442</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>171343.6483550192</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>204559.1063453714</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>220075.5766625899</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>243590.4829436673</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>259794.9248476023</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>264196.0068767159</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>300988.6392902239</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>309508.6914705021</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>315835.401698263</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>353140.0027144659</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>195589.2095355296</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>201620.1096980162</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>172627.4799112416</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>179772.0202519803</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>173907.7971152676</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>185350.3290182721</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>190565.1133182956</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>192624.7318666654</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>189506.2372739963</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>188243.7312106579</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>209696.8084435224</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>211229.0235688191</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>209646.064935747</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>228997.8240787084</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>242489.1071604637</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>261572.1616617481</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>196354.740890336</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>204147.0922987013</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>205408.1912864877</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>223453.4326619424</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>243185.7134367898</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="BZ10">
         <v>255000.9604404081</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CA10">
         <v>251186.8476896392</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10">
         <v>268255.5177913124</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CC10">
         <v>262644.243782052</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CD10">
         <v>261183.5139008091</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CE10">
         <v>268260.5337756159</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CF10">
         <v>260666.6796377798</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CG10">
         <v>278198.3366732842</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CH10">
         <v>246406.0743181857</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CI10">
         <v>278660.4991494336</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CJ10">
         <v>283154.1226294843</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CK10">
         <v>314627.3093240536</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CL10">
         <v>335819.9705784641</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CM10">
         <v>357572.3182323439</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CN10">
         <v>354766.8732742724</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CO10">
         <v>362964.8797828681</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Claims in pounds sterling</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:93">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
         <v>34014.70188879047</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>35573.74234801568</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>37029.31361806</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>39827.3708920595</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>40922.90347454983</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>39789.3973317486</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>39999.03836923277</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>41798.12325738231</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>41849.48315233421</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>40013.08936682332</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>41589.53251611099</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>42400.84077399199</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>42133.31581534188</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>47975.66781867023</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>50482.36465108113</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>52466.42274849448</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>48710.92807346856</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>51670.94257608652</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>51747.3155021385</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>63607.42447790483</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>68817.31861621776</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>69042.38350708772</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>79266.37399859024</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>92734.47697352644</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>100704.2408910259</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>99986.16319914897</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>103773.1277820613</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>106557.9879830338</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>120057.1744827634</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>131381.166296644</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>137030.0600935952</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>150157.4658894056</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>161640.3151458888</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>176421.9513785685</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>188604.1887954708</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>198892.7577277194</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>210759.1981586746</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>215968.562793423</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>206287.6806454654</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>177545.1227294295</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>161420.03655247</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>183879.7691963547</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>192268.1985064823</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>194904.6890952704</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>200502.806514209</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>199645.8710201067</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>207301.2052521957</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>203179.7111807905</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>217685.107303599</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>223497.4809432783</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>218500.1093991365</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>216567.2436244442</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>229464.557200247</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>224456.2284289095</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>247858.2787477213</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>245960.0227629028</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>235500.6134190742</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>231770.0711752192</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>242905.2012926199</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>248102.8150793855</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>262615.4963687462</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>265831.4431635951</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>259169.924328139</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>251783.7637583444</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>258396.8821417341</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>335712.975478576</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>333756.0303309861</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>349657.4241738571</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>361235.5460360357</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>367399.7787543962</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>368076.1903460404</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>365857.9275790101</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BV11">
         <v>377892.6603043687</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11">
         <v>409483.7726707057</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BX11">
         <v>433950.0653625393</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11">
         <v>454789.6542624169</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="BZ11">
         <v>480402.7648122641</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CA11">
         <v>470517.5629186247</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11">
         <v>481437.9725352727</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CC11">
         <v>474875.7506067388</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11">
         <v>495953.8627466208</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11">
         <v>497655.1035145323</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CF11">
         <v>492462.6280633105</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CG11">
         <v>513518.283344273</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CH11">
         <v>486044.645829678</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CI11">
         <v>504356.1468681393</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CJ11">
         <v>523642.4114492753</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CK11">
         <v>561388.0532165297</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CL11">
         <v>554281.236223379</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CM11">
         <v>560903.2313292085</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CN11">
         <v>561659.1852608604</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CO11">
         <v>576219.8463500385</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Allocated Reserves</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:93">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
         <v>77.17804431788925</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>77.34854640516133</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>77.25645031488573</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>77.39385247002618</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>77.40238173967523</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>77.78777377598378</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>78.24150564881685</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>78.38576531225696</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>78.01831679391447</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>78.08919407750621</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>77.98957050375613</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>76.56845376804402</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>75.72453197316219</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>75.54886778956308</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>75.46315850233454</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>74.55903228655892</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>73.75049125596837</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>73.53443752269932</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>72.73417835240966</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>73.46979324951202</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>73.67405709061555</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>72.66287854482057</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>71.99051250533303</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>70.81133275799132</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>68.42318663460169</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>67.54017480385328</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>66.34048220604841</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>65.80637267083276</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>64.90684481655987</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>63.84301713425029</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>63.46636904368221</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>63.22795288259431</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>62.93633868440858</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>62.41470067175755</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>61.87321827931015</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>61.47876204428039</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>60.53037117533838</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>59.4025456173801</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>58.13705660288081</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>57.29078334218086</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>56.97469561863998</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>56.75738342521596</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>56.55549433854653</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>56.12501653458739</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>56.22552713596743</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>56.80292959221453</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>56.80846878806886</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>55.63862713067876</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>55.00712166610686</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>54.51572593468084</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>54.98732547423134</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>55.30165108926701</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>54.64312738288225</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>55.43107602462744</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>55.75516788022381</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>55.56729414129956</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>54.77460617826493</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>54.4603331391875</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>54.03476575792936</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>53.20669760489629</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>58.63200726832156</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>58.60351565879086</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>58.6971668013801</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>58.59136141638673</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>58.93424508101496</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>63.89953816375166</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>64.71839728048056</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>67.81210337990633</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>70.99845806390015</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>73.3664964611902</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>75.89352380370939</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>78.48862094699535</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>80.93923345044145</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12">
         <v>83.14334248639021</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BX12">
         <v>85.27052715382095</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12">
         <v>87.39552671489096</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="BZ12">
         <v>89.51300997789589</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CA12">
         <v>91.54651382983772</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CB12">
         <v>93.82165584365598</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CC12">
         <v>93.79542128997556</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CD12">
         <v>93.8107957000468</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CE12">
         <v>93.85056994759903</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CF12">
         <v>93.69582389860595</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CG12">
         <v>93.61892579207637</v>
       </c>
-      <c r="CH12" t="n">
+      <c r="CH12">
         <v>93.51155398486958</v>
       </c>
-      <c r="CI12" t="n">
+      <c r="CI12">
         <v>93.68812846451678</v>
       </c>
-      <c r="CJ12" t="n">
+      <c r="CJ12">
         <v>93.53694294078414</v>
       </c>
-      <c r="CK12" t="n">
+      <c r="CK12">
         <v>93.37980838121436</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="CL12">
         <v>93.23248527772434</v>
       </c>
-      <c r="CM12" t="n">
+      <c r="CM12">
         <v>93.24207038042121</v>
       </c>
-      <c r="CN12" t="n">
+      <c r="CN12">
         <v>93.29237445941324</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CO12">
         <v>93.14589225563797</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Australian dollars</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="n">
+    <row r="13" spans="1:93">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE13">
         <v>1.456103408581441</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>1.661958712714785</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>1.68823653608242</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>1.682030260758909</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>1.816109605179832</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>1.704693792759481</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>1.725039168969246</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>1.681816474002323</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>1.595524040927637</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>1.557118222669543</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BO13">
         <v>1.733903314902539</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BP13">
         <v>1.656756150214857</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BQ13">
         <v>1.767423262030087</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BR13">
         <v>1.721744229914008</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>1.700799086090085</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BT13">
         <v>1.798400977867388</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BU13">
         <v>1.690496615033942</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BV13">
         <v>1.769485605402236</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BW13">
         <v>1.753566848958494</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BX13">
         <v>1.7761239007194</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BY13">
         <v>1.802655853803503</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="BZ13">
         <v>1.706299746599442</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CA13">
         <v>1.703846997336539</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CB13">
         <v>1.691636053228791</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CC13">
         <v>1.626509653806766</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CD13">
         <v>1.675171097280941</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CE13">
         <v>1.699411618414325</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CF13">
         <v>1.675360509777554</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CG13">
         <v>1.696977693105016</v>
       </c>
-      <c r="CH13" t="n">
+      <c r="CH13">
         <v>1.553205376257482</v>
       </c>
-      <c r="CI13" t="n">
+      <c r="CI13">
         <v>1.690747435045266</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CJ13">
         <v>1.741018817078298</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="CK13">
         <v>1.827890916847287</v>
       </c>
-      <c r="CL13" t="n">
+      <c r="CL13">
         <v>1.83187293104382</v>
       </c>
-      <c r="CM13" t="n">
+      <c r="CM13">
         <v>1.828552367857351</v>
       </c>
-      <c r="CN13" t="n">
+      <c r="CN13">
         <v>1.789879374167925</v>
       </c>
-      <c r="CO13" t="n">
+      <c r="CO13">
         <v>1.809187471722046</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Canadian dollars</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="n">
+    <row r="14" spans="1:93">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE14">
         <v>1.42560100827578</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>1.57890794009983</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>1.795801311829229</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>1.834899943728156</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>1.828454175050049</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>1.74022456384901</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>1.844362268564677</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>1.793031735711663</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>1.750320666219467</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>1.710555065120008</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BO14">
         <v>1.777584095243701</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BP14">
         <v>1.744269075448072</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BQ14">
         <v>1.775279908076172</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BR14">
         <v>1.808146904471903</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BS14">
         <v>1.833535587140086</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BT14">
         <v>1.914018377300253</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BU14">
         <v>1.938070228402454</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BV14">
         <v>1.896412941081385</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BW14">
         <v>1.931448184888267</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BX14">
         <v>2.000546431047743</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BY14">
         <v>2.025408514032357</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="BZ14">
         <v>1.858765709075958</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CA14">
         <v>1.905024690634902</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CB14">
         <v>1.949773486567547</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CC14">
         <v>1.838637300595775</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CD14">
         <v>1.915553246447319</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CE14">
         <v>1.904811044584391</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CF14">
         <v>1.880902772414437</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CG14">
         <v>1.86052443006449</v>
       </c>
-      <c r="CH14" t="n">
+      <c r="CH14">
         <v>1.783986435337202</v>
       </c>
-      <c r="CI14" t="n">
+      <c r="CI14">
         <v>1.913979288682996</v>
       </c>
-      <c r="CJ14" t="n">
+      <c r="CJ14">
         <v>2.016744760164947</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="CK14">
         <v>2.078187200869707</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="CL14">
         <v>2.13123182281256</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="CM14">
         <v>2.260179908036869</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="CN14">
         <v>2.20785448895036</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="CO14">
         <v>2.381055785270395</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Chinese renminbi</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="n">
+    <row r="15" spans="1:93">
+      <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU15">
         <v>1.078392046723525</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="BV15">
         <v>1.080383857192438</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="BW15">
         <v>1.080369333765135</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="BX15">
         <v>1.121752571742259</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BY15">
         <v>1.233169711249232</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="BZ15">
         <v>1.400770809730185</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CA15">
         <v>1.833996541436097</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CB15">
         <v>1.799471700525547</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CC15">
         <v>1.89335096861559</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CD15">
         <v>1.948784250407081</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CE15">
         <v>1.931565704880779</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CF15">
         <v>1.957668225030556</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CG15">
         <v>1.937045325051874</v>
       </c>
-      <c r="CH15" t="n">
+      <c r="CH15">
         <v>2.012973363087234</v>
       </c>
-      <c r="CI15" t="n">
+      <c r="CI15">
         <v>2.075749078825523</v>
       </c>
-      <c r="CJ15" t="n">
+      <c r="CJ15">
         <v>2.159350626845087</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="CK15">
         <v>2.28919115483937</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="CL15">
         <v>2.500441993020299</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="CM15">
         <v>2.635243175578318</v>
       </c>
-      <c r="CN15" t="n">
+      <c r="CN15">
         <v>2.674486005242615</v>
       </c>
-      <c r="CO15" t="n">
+      <c r="CO15">
         <v>2.789127148999649</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Japanese yen</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:93">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
         <v>6.03296977540481</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5.627102762097587</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>6.247035977343126</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>6.373732002595302</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>6.337289318999527</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>5.996695446151694</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>6.426290039525469</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>6.064772624244854</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>5.512610492654882</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>5.355366819029336</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>5.401227529715549</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>5.044411007693316</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>4.383833097830719</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>5.337346308097159</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>5.134591627912256</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>4.941147884269034</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>4.508255646293401</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>4.129119991851445</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>4.342026008197562</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>4.423684192882926</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>4.463827700679088</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>4.32897972771233</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>4.058413078670635</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>4.284083264127699</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>4.253197788552058</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>4.130337034203163</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>4.120054030701892</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>3.960129996089454</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>3.638821984489883</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>3.465674812620409</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>3.339518284379083</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>3.460868401450821</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>3.138075309621146</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>3.059984054337068</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>2.948037147779566</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>3.178008141987928</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16">
         <v>3.365407755483594</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16">
         <v>3.564037593147819</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16">
         <v>3.530667096381086</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16">
         <v>3.467457511075325</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16">
         <v>2.787367998122049</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16">
         <v>3.016296294578714</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16">
         <v>3.158216593872404</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16">
         <v>2.901916587612512</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16">
         <v>2.987426229879554</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16">
         <v>3.193581655781616</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16">
         <v>3.49670139569047</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16">
         <v>3.662709055246305</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16">
         <v>3.624923006268075</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16">
         <v>3.727802038177483</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16">
         <v>3.69493166800915</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16">
         <v>3.613193361909841</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB16">
         <v>3.855208940351307</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC16">
         <v>3.95424480242251</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD16">
         <v>4.270623132331449</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16">
         <v>4.088671390523232</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BF16">
         <v>3.883457606876849</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BG16">
         <v>3.844451657789687</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BH16">
         <v>3.800538931829048</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BI16">
         <v>3.823656027950604</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BJ16">
         <v>3.581321601886337</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BK16">
         <v>3.661764348420868</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BL16">
         <v>3.569894954455924</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BM16">
         <v>3.544840797330014</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BN16">
         <v>3.82648878686022</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BO16">
         <v>3.563951807057713</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BP16">
         <v>3.48657528651326</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BQ16">
         <v>3.754088237673615</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BR16">
         <v>3.659899761152849</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BS16">
         <v>4.0790975251906</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BT16">
         <v>4.190148810346706</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BU16">
         <v>3.953005709355554</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BV16">
         <v>4.525140530688743</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BW16">
         <v>4.61978829231892</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BX16">
         <v>4.515129043866934</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BY16">
         <v>4.896863992386828</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="BZ16">
         <v>4.635399886583903</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CA16">
         <v>4.860587193827675</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CB16">
         <v>4.968064437844005</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CC16">
         <v>5.192001082900585</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CD16">
         <v>5.306506323426447</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CE16">
         <v>5.505411104806202</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CF16">
         <v>5.573023294355331</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CG16">
         <v>5.868763600595398</v>
       </c>
-      <c r="CH16" t="n">
+      <c r="CH16">
         <v>5.886998811789143</v>
       </c>
-      <c r="CI16" t="n">
+      <c r="CI16">
         <v>5.717949204144782</v>
       </c>
-      <c r="CJ16" t="n">
+      <c r="CJ16">
         <v>5.831009213416814</v>
       </c>
-      <c r="CK16" t="n">
+      <c r="CK16">
         <v>6.029296055582948</v>
       </c>
-      <c r="CL16" t="n">
+      <c r="CL16">
         <v>5.850449362371508</v>
       </c>
-      <c r="CM16" t="n">
+      <c r="CM16">
         <v>5.626836245491573</v>
       </c>
-      <c r="CN16" t="n">
+      <c r="CN16">
         <v>5.692498725162002</v>
       </c>
-      <c r="CO16" t="n">
+      <c r="CO16">
         <v>5.574613666930616</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Swiss francs</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:93">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
         <v>0.2881422241669439</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.2427808023304289</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2411396234816883</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.2298944134289829</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.2563042533180385</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.2028447796863603</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.2237472221865876</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.2691652647796374</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.2740240809484682</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.2625744112287904</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>0.2623139977786882</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>0.2452171982550577</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>0.3109324453441679</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>0.3083442148159801</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>0.3201282626114746</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>0.407286760804941</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>0.2404483174291344</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>0.207870840315501</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>0.226615951526221</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>0.2256269444492387</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>0.224959942082627</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>0.2352204935300444</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>0.168667391801517</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>0.1664279645886119</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>0.1700513356640301</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>0.1331945068612218</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>0.144431039358205</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>0.1457035771863253</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>0.1603812436622339</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>0.1476404022515957</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>0.1579099015378728</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>0.1721058102327195</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>0.1716626906453107</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>0.1536725117038843</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>0.1603936018964696</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17">
         <v>0.1551118891790421</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17">
         <v>0.1505273396482333</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17">
         <v>0.1594813743265852</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17">
         <v>0.1481989470726819</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17">
         <v>0.1377651909667502</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17">
         <v>0.1383733225893087</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17">
         <v>0.1228068712231151</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17">
         <v>0.1191113875666446</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17">
         <v>0.115641645205934</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17">
         <v>0.1188674585504828</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17">
         <v>0.1104310667926883</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17">
         <v>0.1020333051052734</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17">
         <v>0.1285774230260834</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17">
         <v>0.1181823056213694</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17">
         <v>0.1172377419461228</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17">
         <v>0.3044316669778395</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17">
         <v>0.07720657986656819</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB17">
         <v>0.2445275698457359</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC17">
         <v>0.2344305018158914</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD17">
         <v>0.2959712052255628</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17">
         <v>0.2126840504989928</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BF17">
         <v>0.2602899273554832</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BG17">
         <v>0.2578209386056764</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BH17">
         <v>0.2631236198062911</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BI17">
         <v>0.2684235290630396</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BJ17">
         <v>0.2376597865025329</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BK17">
         <v>0.241720496461722</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BL17">
         <v>0.2299626046907381</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BM17">
         <v>0.2399311022267663</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BN17">
         <v>0.2634990847141502</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BO17">
         <v>0.2917757066706271</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BP17">
         <v>0.2528540170653885</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BQ17">
         <v>0.2673930884028204</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BR17">
         <v>0.1908611854637294</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BS17">
         <v>0.1779782045210747</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BT17">
         <v>0.177094838088496</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="BU17">
         <v>0.1626828128684283</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="BV17">
         <v>0.1636330332063524</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="BW17">
         <v>0.1685444872790199</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="BX17">
         <v>0.1664156587661234</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="BY17">
         <v>0.1758145687749765</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="BZ17">
         <v>0.1678590907450145</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CA17">
         <v>0.1590913777949705</v>
       </c>
-      <c r="CB17" t="n">
+      <c r="CB17">
         <v>0.1558451735732138</v>
       </c>
-      <c r="CC17" t="n">
+      <c r="CC17">
         <v>0.1378153872286556</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CD17">
         <v>0.1354673863093533</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="CE17">
         <v>0.1363241710917965</v>
       </c>
-      <c r="CF17" t="n">
+      <c r="CF17">
         <v>0.1436157932326295</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CG17">
         <v>0.1496123196335087</v>
       </c>
-      <c r="CH17" t="n">
+      <c r="CH17">
         <v>0.1424274126104127</v>
       </c>
-      <c r="CI17" t="n">
+      <c r="CI17">
         <v>0.1529595858364669</v>
       </c>
-      <c r="CJ17" t="n">
+      <c r="CJ17">
         <v>0.1684274469401359</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CK17">
         <v>0.1747926427351105</v>
       </c>
-      <c r="CL17" t="n">
+      <c r="CL17">
         <v>0.1657505315733244</v>
       </c>
-      <c r="CM17" t="n">
+      <c r="CM17">
         <v>0.1936213359884344</v>
       </c>
-      <c r="CN17" t="n">
+      <c r="CN17">
         <v>0.1985937833275905</v>
       </c>
-      <c r="CO17" t="n">
+      <c r="CO17">
         <v>0.2033557785716992</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Shares of U.S. dollars</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:93">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
         <v>71.18886898710112</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>72.12593180409038</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>70.68475623420319</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>71.01393147339647</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>71.45978458337107</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>72.0208494261706</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>72.29876527452504</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>71.12932916167684</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>72.30659293283436</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>72.70201155177655</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>71.39914013825482</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>71.51475205505292</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>71.62394549540812</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>68.48856304477854</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>67.48778785109771</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>66.50121554975161</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>66.379255124892</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>66.22277449867731</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>66.65262397210483</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>65.44980501393923</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>67.08883975378689</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>67.39292347160716</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>66.88763644265356</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>65.50664237443614</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>65.14237223848743</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>65.80791440962173</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>66.0760543816945</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>66.51465591124439</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>66.15757574798118</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>65.70883215465113</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>66.11120699175703</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>65.04443623194888</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18">
         <v>65.05410625517491</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18">
         <v>64.87964154202065</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18">
         <v>63.90430202628028</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18">
         <v>63.87464841035765</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18">
         <v>62.93639640482036</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18">
         <v>62.58862340322029</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18">
         <v>64.16935803386976</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18">
         <v>63.76535252979647</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18">
         <v>65.17918626165415</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18">
         <v>62.80601940138622</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18">
         <v>61.55692389673496</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18">
         <v>62.14555497830513</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18">
         <v>62.16767384022737</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18">
         <v>62.92536914882897</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18">
         <v>61.94854332752187</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18">
         <v>62.23962904806891</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18">
         <v>61.42266904007251</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18">
         <v>60.8813450348872</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18">
         <v>62.02239465595469</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18">
         <v>62.6923029874452</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB18">
         <v>61.84837429625031</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC18">
         <v>61.76027553742392</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD18">
         <v>61.40334283141124</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18">
         <v>61.49104383092465</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BF18">
         <v>62.02594970980325</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BG18">
         <v>62.06979490795618</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BH18">
         <v>61.64401166487225</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BI18">
         <v>61.27102214248986</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BJ18">
         <v>63.03013500009457</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BK18">
         <v>63.07512463772951</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BL18">
         <v>64.61390696600576</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BM18">
         <v>65.16604898718644</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BN18">
         <v>65.99895809409288</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BO18">
         <v>65.29301372251103</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BP18">
         <v>65.54391830889146</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BQ18">
         <v>65.74462019787831</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BR18">
         <v>65.46457593624477</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BS18">
         <v>65.22516241356692</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BT18">
         <v>64.70452043176142</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BU18">
         <v>65.36031192189922</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BV18">
         <v>64.68964749658087</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BW18">
         <v>63.84416393083163</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BX18">
         <v>63.53429540619477</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BY18">
         <v>62.726993165501</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="BZ18">
         <v>62.79432485062306</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CA18">
         <v>62.40832694605422</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CB18">
         <v>61.95265422261009</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CC18">
         <v>61.76146453605904</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CD18">
         <v>61.78643129141847</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CE18">
         <v>61.30997377723503</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CF18">
         <v>61.61399045993656</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CG18">
         <v>60.74771625348217</v>
       </c>
-      <c r="CH18" t="n">
+      <c r="CH18">
         <v>61.8530031437056</v>
       </c>
-      <c r="CI18" t="n">
+      <c r="CI18">
         <v>61.30721723885102</v>
       </c>
-      <c r="CJ18" t="n">
+      <c r="CJ18">
         <v>60.45120114138497</v>
       </c>
-      <c r="CK18" t="n">
+      <c r="CK18">
         <v>58.92332098008135</v>
       </c>
-      <c r="CL18" t="n">
+      <c r="CL18">
         <v>59.43230654863743</v>
       </c>
-      <c r="CM18" t="n">
+      <c r="CM18">
         <v>59.18437519688622</v>
       </c>
-      <c r="CN18" t="n">
+      <c r="CN18">
         <v>59.21015428795855</v>
       </c>
-      <c r="CO18" t="n">
+      <c r="CO18">
         <v>58.81184149053396</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Shares of Unallocated Reserves</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:93">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
         <v>22.82195568211075</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>22.65145359483867</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>22.74354968511428</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>22.60614752997382</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>22.59761826032477</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>22.21222622401622</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>21.75849435118315</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>21.61423468774304</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>21.98168320608553</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>21.91080592249379</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>22.01042949624388</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>23.43154623195598</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>24.27546802683782</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>24.45113221043692</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>24.53684149766546</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>25.44096771344109</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>26.24950874403162</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>26.46556247730068</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>27.26582164759034</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>26.53020675048798</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>26.32594290938446</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>27.33712145517943</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>28.00948749466697</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>29.18866724200868</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>31.57681336539832</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>32.45982519614671</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>33.65951779395159</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>34.19362732916724</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>35.09315518344012</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>36.15698286574971</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>36.53363095631779</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>36.77204711740569</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>37.06366131559142</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>37.58529932824244</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>38.12678172068985</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19">
         <v>38.52123795571961</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19">
         <v>39.46962882466162</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19">
         <v>40.5974543826199</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19">
         <v>41.8629433971192</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19">
         <v>42.70921665781914</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19">
         <v>43.02530438136002</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19">
         <v>43.24261657478404</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19">
         <v>43.44450566145347</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19">
         <v>43.8749834654126</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19">
         <v>43.77447286403257</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19">
         <v>43.19707040778546</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19">
         <v>43.19153121193114</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19">
         <v>44.36137286932124</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19">
         <v>44.99287833389314</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19">
         <v>45.48427406531916</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19">
         <v>45.01267452576865</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19">
         <v>44.69834891073299</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB19">
         <v>45.35687261711775</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC19">
         <v>44.56892397537256</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD19">
         <v>44.24483211977619</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19">
         <v>44.43270585870044</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BF19">
         <v>45.22539382173508</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BG19">
         <v>45.5396668608125</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BH19">
         <v>45.96523424207064</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BI19">
         <v>46.79330239510371</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BJ19">
         <v>41.36799273167844</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BK19">
         <v>41.39648434120913</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BL19">
         <v>41.3028331986199</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BM19">
         <v>41.40863858361328</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BN19">
         <v>41.06575491898504</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BO19">
         <v>36.10046183624834</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BP19">
         <v>35.28160271951943</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BQ19">
         <v>32.18789662009367</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BR19">
         <v>29.00154193609985</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BS19">
         <v>26.6335035388098</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BT19">
         <v>24.10647619629061</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="BU19">
         <v>21.51137905300464</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BV19">
         <v>19.06076654955855</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="BW19">
         <v>16.8566575136098</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="BX19">
         <v>14.72947284617905</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="BY19">
         <v>12.60447328510903</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="BZ19">
         <v>10.48699002210411</v>
       </c>
-      <c r="CA19" t="n">
+      <c r="CA19">
         <v>8.453486170162275</v>
       </c>
-      <c r="CB19" t="n">
+      <c r="CB19">
         <v>6.178344156344029</v>
       </c>
-      <c r="CC19" t="n">
+      <c r="CC19">
         <v>6.204578710024428</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CD19">
         <v>6.189204299953195</v>
       </c>
-      <c r="CE19" t="n">
+      <c r="CE19">
         <v>6.149430052400971</v>
       </c>
-      <c r="CF19" t="n">
+      <c r="CF19">
         <v>6.304176101394054</v>
       </c>
-      <c r="CG19" t="n">
+      <c r="CG19">
         <v>6.381074207923637</v>
       </c>
-      <c r="CH19" t="n">
+      <c r="CH19">
         <v>6.488446015130424</v>
       </c>
-      <c r="CI19" t="n">
+      <c r="CI19">
         <v>6.311871535483229</v>
       </c>
-      <c r="CJ19" t="n">
+      <c r="CJ19">
         <v>6.46305705921586</v>
       </c>
-      <c r="CK19" t="n">
+      <c r="CK19">
         <v>6.620191618785647</v>
       </c>
-      <c r="CL19" t="n">
+      <c r="CL19">
         <v>6.767514722275672</v>
       </c>
-      <c r="CM19" t="n">
+      <c r="CM19">
         <v>6.757929619578787</v>
       </c>
-      <c r="CN19" t="n">
+      <c r="CN19">
         <v>6.707625540586763</v>
       </c>
-      <c r="CO19" t="n">
+      <c r="CO19">
         <v>6.854107744362022</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Shares of euro</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:93">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
         <v>18.12214703708366</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>17.57474127264913</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18.32760906018983</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>17.89879057693322</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>17.50498092170353</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>17.51483991965012</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>16.97364016060051</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>18.29038577132506</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>17.70752604012912</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>17.63087695597876</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>18.90262045352286</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>19.18300220520237</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>19.67196395644073</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>21.39478506908593</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>22.42757024239065</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>23.65011202859666</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>24.51677841323406</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>24.97103233899608</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>24.44913522169635</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>25.03286691162504</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>23.43568820010835</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>23.3086675966312</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>23.76734368918658</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>24.67950398764428</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>24.90058909869492</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>24.54865441620968</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>24.12438757942331</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>23.88964582901949</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>24.37088514564231</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>24.63485494660762</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>24.30524436844172</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>24.9946250310575</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20">
         <v>25.06596313936512</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20">
         <v>25.16696661438935</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20">
         <v>26.01015855965464</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20">
         <v>26.13335050734052</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20">
         <v>26.54631165623871</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20">
         <v>26.61508860657676</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20">
         <v>25.31972862246399</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20">
         <v>26.21429716833027</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20">
         <v>25.81788142343056</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20">
         <v>27.56993181308496</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20">
         <v>28.02639099417154</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20">
         <v>27.70099723698499</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20">
         <v>27.05827299567994</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20">
         <v>26.01537316916484</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20">
         <v>26.38970429917951</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW20">
         <v>25.75891106068149</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX20">
         <v>26.19515036270086</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY20">
         <v>26.48818165473626</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ20">
         <v>25.34692759749576</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA20">
         <v>24.44656455949742</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB20">
         <v>24.60627899847219</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC20">
         <v>24.79882279862015</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD20">
         <v>24.03869124269663</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20">
         <v>24.06991879100942</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BF20">
         <v>23.40208728762481</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BG20">
         <v>23.68060726540035</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BH20">
         <v>23.94671212830549</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BI20">
         <v>24.21187150846696</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BJ20">
         <v>23.26533088362764</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BK20">
         <v>22.96745562937795</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BL20">
         <v>21.57718701349576</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BM20">
         <v>21.21391018915632</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BN20">
         <v>20.02231372554131</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BO20">
         <v>19.898699919531</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BP20">
         <v>19.79250554899924</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BQ20">
         <v>19.14670879273398</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BR20">
         <v>19.55221499102518</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BS20">
         <v>19.41098304398445</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BT20">
         <v>19.67658072032789</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BU20">
         <v>19.13822141433241</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="BV20">
         <v>19.28519545488112</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="BW20">
         <v>19.95877921328743</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="BX20">
         <v>20.06736268830772</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BY20">
         <v>20.16818726598717</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="BZ20">
         <v>20.36478704047678</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CA20">
         <v>20.26216768921815</v>
       </c>
-      <c r="CB20" t="n">
+      <c r="CB20">
         <v>20.47944128721937</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CC20">
         <v>20.6743615239497</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CD20">
         <v>20.28086109795141</v>
       </c>
-      <c r="CE20" t="n">
+      <c r="CE20">
         <v>20.56025334734239</v>
       </c>
-      <c r="CF20" t="n">
+      <c r="CF20">
         <v>20.26023869250713</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CG20">
         <v>20.5884468352779</v>
       </c>
-      <c r="CH20" t="n">
+      <c r="CH20">
         <v>20.07565958050771</v>
       </c>
-      <c r="CI20" t="n">
+      <c r="CI20">
         <v>20.18590106811664</v>
       </c>
-      <c r="CJ20" t="n">
+      <c r="CJ20">
         <v>20.59164954917895</v>
       </c>
-      <c r="CK20" t="n">
+      <c r="CK20">
         <v>21.29383904950164</v>
       </c>
-      <c r="CL20" t="n">
+      <c r="CL20">
         <v>20.5001167543288</v>
       </c>
-      <c r="CM20" t="n">
+      <c r="CM20">
         <v>20.58281165787361</v>
       </c>
-      <c r="CN20" t="n">
+      <c r="CN20">
         <v>20.57085082782869</v>
       </c>
-      <c r="CO20" t="n">
+      <c r="CO20">
         <v>20.63710038083159</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Shares of other currencies</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:93">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
         <v>1.623454837575039</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.636550314418042</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.70319953131544</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1.596992950327386</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1.519809214947816</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.505286781433108</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1.348271335982445</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>1.493289388862627</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>1.423408909072798</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>1.400825464798012</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>1.405757235124183</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>1.311673817743473</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>1.337293884277436</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>1.632966955491566</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>1.731390761083875</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>1.57866123169671</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>1.715665082252138</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>1.836828510950176</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>1.81795030780727</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>2.006674927084357</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>1.953283602164795</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>1.890568701064097</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>1.917996389405852</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>1.870461718961572</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>1.793502727628278</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>1.713821022170142</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>1.776508316682056</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>1.742424830391438</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>1.58437359012915</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>1.721567075224264</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>1.727363300898867</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>1.807652017284201</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>1.976295276347271</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>1.995363265492531</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>2.139155556482523</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21">
         <v>1.834809833709086</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21">
         <v>2.195506661084016</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21">
         <v>2.199527512091902</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21">
         <v>2.100885330932849</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21">
         <v>2.197505086371066</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21">
         <v>2.122191225731608</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21">
         <v>2.202413025805789</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21">
         <v>2.826029376243612</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21">
         <v>2.883380708549035</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21">
         <v>3.367523670263169</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU21">
         <v>3.581804595111229</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV21">
         <v>4.004667706719299</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21">
         <v>4.268957057966929</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX21">
         <v>4.562124173563849</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY21">
         <v>4.722629646974542</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ21">
         <v>4.724212034739251</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA21">
         <v>5.333310645258727</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB21">
         <v>5.424199547621164</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC21">
         <v>5.408524704032216</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD21">
         <v>5.870820431036281</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21">
         <v>3.214117031057708</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BF21">
         <v>3.315134652712137</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BG21">
         <v>2.844395337327812</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BH21">
         <v>2.904358590953885</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BI21">
         <v>2.794184202315112</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BJ21">
         <v>2.664876720834372</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BK21">
         <v>2.70757049819081</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BL21">
         <v>2.785886362702207</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BM21">
         <v>2.786798618941411</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BN21">
         <v>2.790553127881054</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BO21">
         <v>2.860911148140346</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BP21">
         <v>2.915862776610533</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BQ21">
         <v>2.827931418722642</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BR21">
         <v>2.949628226207425</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BS21">
         <v>3.010770094059103</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BT21">
         <v>3.13199297796136</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="BU21">
         <v>2.332600983768987</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BV21">
         <v>2.311440013533559</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BW21">
         <v>2.2192457759211</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BX21">
         <v>2.317585998467133</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BY21">
         <v>2.428774786479475</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="BZ21">
         <v>2.452141471391485</v>
       </c>
-      <c r="CA21" t="n">
+      <c r="CA21">
         <v>2.390022354687801</v>
       </c>
-      <c r="CB21" t="n">
+      <c r="CB21">
         <v>2.505855925747</v>
       </c>
-      <c r="CC21" t="n">
+      <c r="CC21">
         <v>2.448618267670197</v>
       </c>
-      <c r="CD21" t="n">
+      <c r="CD21">
         <v>2.397907575999875</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CE21">
         <v>2.435012420455015</v>
       </c>
-      <c r="CF21" t="n">
+      <c r="CF21">
         <v>2.386507784177457</v>
       </c>
-      <c r="CG21" t="n">
+      <c r="CG21">
         <v>2.512732716479312</v>
       </c>
-      <c r="CH21" t="n">
+      <c r="CH21">
         <v>2.251191495150652</v>
       </c>
-      <c r="CI21" t="n">
+      <c r="CI21">
         <v>2.475327061965835</v>
       </c>
-      <c r="CJ21" t="n">
+      <c r="CJ21">
         <v>2.470975507789264</v>
       </c>
-      <c r="CK21" t="n">
+      <c r="CK21">
         <v>2.651831433893434</v>
       </c>
-      <c r="CL21" t="n">
+      <c r="CL21">
         <v>2.862758579316091</v>
       </c>
-      <c r="CM21" t="n">
+      <c r="CM21">
         <v>2.993168301011912</v>
       </c>
-      <c r="CN21" t="n">
+      <c r="CN21">
         <v>2.963667958393543</v>
       </c>
-      <c r="CO21" t="n">
+      <c r="CO21">
         <v>3.012023022533008</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Shares of pounds sterling</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:93">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22">
         <v>2.744417138668421</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.79289304441442</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.796259573466718</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2.886658583318635</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>2.921831707660002</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.759483646908127</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>2.729285967179944</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>2.753057789110982</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>2.775837544360361</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>2.648344797188539</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>2.62894064560389</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>2.700943716052863</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>2.672031120698809</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>2.837994407730807</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>2.898531254904035</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>2.921576544881049</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>2.639597415899275</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>2.63237381920949</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>2.511648538667773</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>2.861342010019214</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>2.833400801178242</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>2.843640009455171</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>3.199943008281859</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>3.4928806902417</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>3.740286810973299</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>3.666078610934061</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>3.758564652140053</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>3.747439856068919</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>4.087962288095231</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>4.321430608644986</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>4.358757152985431</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>4.520312508025884</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22">
         <v>4.593897328846231</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22">
         <v>4.744372012056522</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22">
         <v>4.837953107906516</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22">
         <v>4.824071217425758</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22">
         <v>4.805850182725107</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22">
         <v>4.873241510636642</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22">
         <v>4.731161969279621</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22">
         <v>4.217622513460131</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22">
         <v>3.954999768472327</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22">
         <v>4.282532593921214</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22">
         <v>4.31332775141085</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22">
         <v>4.252508843342397</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22">
         <v>4.300235805399492</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22">
         <v>4.173440364320657</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22">
         <v>4.058349965783577</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22">
         <v>3.941216355010281</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX22">
         <v>4.076951111773342</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY22">
         <v>4.062803883278381</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ22">
         <v>3.907102376823308</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA22">
         <v>3.837421866022248</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB22">
         <v>4.021410647459294</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC22">
         <v>3.843701655685331</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22">
         <v>4.12055115729884</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22">
         <v>4.041860489128782</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BF22">
         <v>3.872214162812846</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BG22">
         <v>3.818892045008636</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BH22">
         <v>3.924324859745976</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BI22">
         <v>3.986278809484532</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BJ22">
         <v>3.775757650446061</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BK22">
         <v>3.776962952285221</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BL22">
         <v>3.748313888935638</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BM22">
         <v>3.70262559801195</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BN22">
         <v>3.830513893120829</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BO22">
         <v>4.580160285943031</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BP22">
         <v>4.607258836257183</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BQ22">
         <v>4.716555094482376</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BR22">
         <v>4.652928765520138</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BS22">
         <v>4.561674045447674</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BT22">
         <v>4.407242866346479</v>
       </c>
-      <c r="BU22" t="n">
+      <c r="BU22">
         <v>4.346218267615475</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BV22">
         <v>4.278661067433285</v>
       </c>
-      <c r="BW22" t="n">
+      <c r="BW22">
         <v>4.424093932749991</v>
       </c>
-      <c r="BX22" t="n">
+      <c r="BX22">
         <v>4.500788300887927</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BY22">
         <v>4.542132141785477</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="BZ22">
         <v>4.619651394774164</v>
       </c>
-      <c r="CA22" t="n">
+      <c r="CA22">
         <v>4.476936209009647</v>
       </c>
-      <c r="CB22" t="n">
+      <c r="CB22">
         <v>4.497257712684428</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CC22">
         <v>4.427241279173686</v>
       </c>
-      <c r="CD22" t="n">
+      <c r="CD22">
         <v>4.553317730759117</v>
       </c>
-      <c r="CE22" t="n">
+      <c r="CE22">
         <v>4.517236811190081</v>
       </c>
-      <c r="CF22" t="n">
+      <c r="CF22">
         <v>4.508692468568356</v>
       </c>
-      <c r="CG22" t="n">
+      <c r="CG22">
         <v>4.638180826310312</v>
       </c>
-      <c r="CH22" t="n">
+      <c r="CH22">
         <v>4.440554381554575</v>
       </c>
-      <c r="CI22" t="n">
+      <c r="CI22">
         <v>4.480170038531482</v>
       </c>
-      <c r="CJ22" t="n">
+      <c r="CJ22">
         <v>4.569622937201536</v>
       </c>
-      <c r="CK22" t="n">
+      <c r="CK22">
         <v>4.731650565649165</v>
       </c>
-      <c r="CL22" t="n">
+      <c r="CL22">
         <v>4.725071476896156</v>
       </c>
-      <c r="CM22" t="n">
+      <c r="CM22">
         <v>4.695211811275712</v>
       </c>
-      <c r="CN22" t="n">
+      <c r="CN22">
         <v>4.692014548968737</v>
       </c>
-      <c r="CO22" t="n">
+      <c r="CO22">
         <v>4.781695254607023</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Total Foreign Exchange Reserves</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:93">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23">
         <v>1605915.82177076</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1646732.642027346</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1714089.237837563</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1782706.106014747</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1809493.040190661</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1853651.956689539</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>1873110.114220268</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>1936886.854812769</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>1932410.89275831</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>1934802.396398024</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>2028461.312349642</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>2050260.558927018</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>2082320.280399348</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>2237595.259467267</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>2307951.739383794</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>2408595.787188592</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>2502210.211298018</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>2669365.519940528</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>2832633.716828355</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>3025723.386734203</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>3296667.51167709</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>3341400.715991052</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>3440895.499294106</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>3749338.981291056</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>3934953.07575899</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>4038089.58794123</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>4161829.246649766</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>4320991.256854884</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>4524709.893765779</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23">
         <v>4762030.42874477</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23">
         <v>4953469.832059429</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23">
         <v>5253749.34595458</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23">
         <v>5590709.5403513</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23">
         <v>5957814.733720182</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23">
         <v>6300673.47335094</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23">
         <v>6706256.264625318</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23">
         <v>7245076.451063349</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23">
         <v>7460493.33623447</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23">
         <v>7499847.566998635</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23">
         <v>7347782.27723194</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23">
         <v>7163561.03007516</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23">
         <v>7565034.398536375</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23">
         <v>7881705.34223964</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23">
         <v>8166210.683778065</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23">
         <v>8292675.076801625</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU23">
         <v>8421615.044701681</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AV23">
         <v>8991646.99615215</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AW23">
         <v>9265602.333573962</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AX23">
         <v>9706760.05246973</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY23">
         <v>10090785.4913471</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ23">
         <v>10170311.88037824</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA23">
         <v>10205049.72874928</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB23">
         <v>10442431.70782068</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC23">
         <v>10534857.88012598</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD23">
         <v>10788547.82823322</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE23">
         <v>10951256.62813161</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BF23">
         <v>11103334.14926557</v>
       </c>
-      <c r="BG23" t="n">
+      <c r="BG23">
         <v>11143963.4464922</v>
       </c>
-      <c r="BH23" t="n">
+      <c r="BH23">
         <v>11455092.21602441</v>
       </c>
-      <c r="BI23" t="n">
+      <c r="BI23">
         <v>11697625.5924907</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BJ23">
         <v>11862643.4094079</v>
       </c>
-      <c r="BK23" t="n">
+      <c r="BK23">
         <v>12009915.55361458</v>
       </c>
-      <c r="BL23" t="n">
+      <c r="BL23">
         <v>11779626.23413572</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BM23">
         <v>11606047.2059381</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BN23">
         <v>11446230.89835496</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BO23">
         <v>11470694.9743684</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BP23">
         <v>11193315.77991251</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BQ23">
         <v>10932276.98549128</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BR23">
         <v>10934908.62471806</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BS23">
         <v>10977839.08715248</v>
       </c>
-      <c r="BT23" t="n">
+      <c r="BT23">
         <v>11004391.27297584</v>
       </c>
-      <c r="BU23" t="n">
+      <c r="BU23">
         <v>10724924.37612207</v>
       </c>
-      <c r="BV23" t="n">
+      <c r="BV23">
         <v>10911927.81720251</v>
       </c>
-      <c r="BW23" t="n">
+      <c r="BW23">
         <v>11132299.36580568</v>
       </c>
-      <c r="BX23" t="n">
+      <c r="BX23">
         <v>11307125.80732242</v>
       </c>
-      <c r="BY23" t="n">
+      <c r="BY23">
         <v>11456754.52096785</v>
       </c>
-      <c r="BZ23" t="n">
+      <c r="BZ23">
         <v>11617431.83181811</v>
       </c>
-      <c r="CA23" t="n">
+      <c r="CA23">
         <v>11480296.95807351</v>
       </c>
-      <c r="CB23" t="n">
+      <c r="CB23">
         <v>11410100.57966026</v>
       </c>
-      <c r="CC23" t="n">
+      <c r="CC23">
         <v>11435763.45338277</v>
       </c>
-      <c r="CD23" t="n">
+      <c r="CD23">
         <v>11610756.06833157</v>
       </c>
-      <c r="CE23" t="n">
+      <c r="CE23">
         <v>11738664.4693994</v>
       </c>
-      <c r="CF23" t="n">
+      <c r="CF23">
         <v>11657419.63719666</v>
       </c>
-      <c r="CG23" t="n">
+      <c r="CG23">
         <v>11826182.6176848</v>
       </c>
-      <c r="CH23" t="n">
+      <c r="CH23">
         <v>11705061.399071</v>
       </c>
-      <c r="CI23" t="n">
+      <c r="CI23">
         <v>12015954.00803383</v>
       </c>
-      <c r="CJ23" t="n">
+      <c r="CJ23">
         <v>12250992.57581972</v>
       </c>
-      <c r="CK23" t="n">
+      <c r="CK23">
         <v>12705668.60099514</v>
       </c>
-      <c r="CL23" t="n">
+      <c r="CL23">
         <v>12582140.57617301</v>
       </c>
-      <c r="CM23" t="n">
+      <c r="CM23">
         <v>12812115.4888912</v>
       </c>
-      <c r="CN23" t="n">
+      <c r="CN23">
         <v>12831202.7879625</v>
       </c>
-      <c r="CO23" t="n">
+      <c r="CO23">
         <v>12937269.07059026</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Unallocated Reserves</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:93">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24">
         <v>366501.3971365273</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>373008.880239885</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>389844.7374547827</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>403001.1723515452</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>408902.3296694307</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>411737.3660257837</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>407560.5583940572</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>418643.2704352768</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>424776.440686021</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>423930.79805853</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>446473.0470133013</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>480407.7507405432</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>505492.9938847034</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>547117.3752268106</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>566298.4601352146</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>612770.0765659519</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>656817.8882087254</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>706462.5994273823</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>772340.8571599282</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>802730.6701984511</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>867878.8070363359</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>913442.772034709</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>963777.1945793413</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>1094382.079023964</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>1242532.788748417</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA24">
         <v>1310756.821509524</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24">
         <v>1400851.65582996</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24">
         <v>1477503.647294859</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24">
         <v>1587863.464619694</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE24">
         <v>1721806.526183034</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24">
         <v>1809682.387977126</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24">
         <v>1931911.184924812</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH24">
         <v>2072121.649174264</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI24">
         <v>2239262.501090861</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ24">
         <v>2402244.02211792</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK24">
         <v>2583332.933616672</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL24">
         <v>2859604.783297671</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AM24">
         <v>3028770.378896187</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN24">
         <v>3139656.94184286</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO24">
         <v>3138180.252327826</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP24">
         <v>3082143.937734327</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AQ24">
         <v>3271318.818709605</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR24">
         <v>3424167.923628381</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS24">
         <v>3582923.587258384</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AT24">
         <v>3630074.801196919</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AU24">
         <v>3637890.980332437</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AV24">
         <v>3883630.018809725</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW24">
         <v>4110348.399785276</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX24">
         <v>4367350.740570648</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AY24">
         <v>4589720.528227777</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="AZ24">
         <v>4577929.384970238</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BA24">
         <v>4561488.734270162</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BB24">
         <v>4736360.447845741</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BC24">
         <v>4695272.799506894</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD24">
         <v>4773374.874763547</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BE24">
         <v>4865939.645409157</v>
       </c>
-      <c r="BF24" t="n">
+      <c r="BF24">
         <v>5021526.596348554</v>
       </c>
-      <c r="BG24" t="n">
+      <c r="BG24">
         <v>5074923.828623267</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BH24">
         <v>5265359.969740821</v>
       </c>
-      <c r="BI24" t="n">
+      <c r="BI24">
         <v>5473705.316541214</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BJ24">
         <v>4907337.463388792</v>
       </c>
-      <c r="BK24" t="n">
+      <c r="BK24">
         <v>4971682.811544499</v>
       </c>
-      <c r="BL24" t="n">
+      <c r="BL24">
         <v>4865319.374905948</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BM24">
         <v>4805906.141350455</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BN24">
         <v>4700481.12817959</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BO24">
         <v>4140973.861574322</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BP24">
         <v>3949181.204610009</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BQ24">
         <v>3518870.014312224</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BR24">
         <v>3171292.110471809</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BS24">
         <v>2923783.161761601</v>
       </c>
-      <c r="BT24" t="n">
+      <c r="BT24">
         <v>2652770.962766604</v>
       </c>
-      <c r="BU24" t="n">
+      <c r="BU24">
         <v>2307079.135695711</v>
       </c>
-      <c r="BV24" t="n">
+      <c r="BV24">
         <v>2079897.087293311</v>
       </c>
-      <c r="BW24" t="n">
+      <c r="BW24">
         <v>1876533.577483619</v>
       </c>
-      <c r="BX24" t="n">
+      <c r="BX24">
         <v>1665480.025472859</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BY24">
         <v>1444063.562935914</v>
       </c>
-      <c r="BZ24" t="n">
+      <c r="BZ24">
         <v>1218318.917027512</v>
       </c>
-      <c r="CA24" t="n">
+      <c r="CA24">
         <v>970485.3156443047</v>
       </c>
-      <c r="CB24" t="n">
+      <c r="CB24">
         <v>704955.2823964161</v>
       </c>
-      <c r="CC24" t="n">
+      <c r="CC24">
         <v>709540.9445573417</v>
       </c>
-      <c r="CD24" t="n">
+      <c r="CD24">
         <v>718613.4138382539</v>
       </c>
-      <c r="CE24" t="n">
+      <c r="CE24">
         <v>721860.9606317617</v>
       </c>
-      <c r="CF24" t="n">
+      <c r="CF24">
         <v>734904.2628073691</v>
       </c>
-      <c r="CG24" t="n">
+      <c r="CG24">
         <v>754637.4887990332</v>
       </c>
-      <c r="CH24" t="n">
+      <c r="CH24">
         <v>759476.5899165918</v>
       </c>
-      <c r="CI24" t="n">
+      <c r="CI24">
         <v>758431.5807498437</v>
       </c>
-      <c r="CJ24" t="n">
+      <c r="CJ24">
         <v>791788.6404955273</v>
       </c>
-      <c r="CK24" t="n">
+      <c r="CK24">
         <v>841139.6078337597</v>
       </c>
-      <c r="CL24" t="n">
+      <c r="CL24">
         <v>851498.2158699296</v>
       </c>
-      <c r="CM24" t="n">
+      <c r="CM24">
         <v>865833.7475184199</v>
       </c>
-      <c r="CN24" t="n">
+      <c r="CN24">
         <v>860669.0353698535</v>
       </c>
-      <c r="CO24" t="n">
+      <c r="CO24">
         <v>886734.3612762793</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FOREX/data/FOREX_7_historical.xlsx
+++ b/FOREX/data/FOREX_7_historical.xlsx
@@ -1,390 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Exchange Rates" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exchange Rates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
-  <si>
-    <t>1999Q1</t>
-  </si>
-  <si>
-    <t>1999Q2</t>
-  </si>
-  <si>
-    <t>1999Q3</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q1</t>
-  </si>
-  <si>
-    <t>2000Q2</t>
-  </si>
-  <si>
-    <t>2000Q3</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q1</t>
-  </si>
-  <si>
-    <t>2001Q2</t>
-  </si>
-  <si>
-    <t>2001Q3</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q1</t>
-  </si>
-  <si>
-    <t>2002Q2</t>
-  </si>
-  <si>
-    <t>2002Q3</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q1</t>
-  </si>
-  <si>
-    <t>2003Q2</t>
-  </si>
-  <si>
-    <t>2003Q3</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q1</t>
-  </si>
-  <si>
-    <t>2004Q2</t>
-  </si>
-  <si>
-    <t>2004Q3</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q1</t>
-  </si>
-  <si>
-    <t>2005Q2</t>
-  </si>
-  <si>
-    <t>2005Q3</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q1</t>
-  </si>
-  <si>
-    <t>2006Q2</t>
-  </si>
-  <si>
-    <t>2006Q3</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q1</t>
-  </si>
-  <si>
-    <t>2007Q2</t>
-  </si>
-  <si>
-    <t>2007Q3</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>2019Q3</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q1</t>
-  </si>
-  <si>
-    <t>2020Q2</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
-  </si>
-  <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>Allocated Reserves</t>
-  </si>
-  <si>
-    <t>Claims in Australian dollars</t>
-  </si>
-  <si>
-    <t>Claims in Canadian dollars</t>
-  </si>
-  <si>
-    <t>Claims in Chinese renminbi</t>
-  </si>
-  <si>
-    <t>Claims in Japanese yen</t>
-  </si>
-  <si>
-    <t>Claims in Swiss francs</t>
-  </si>
-  <si>
-    <t>Claims in U.S. dollars</t>
-  </si>
-  <si>
-    <t>Claims in euro</t>
-  </si>
-  <si>
-    <t>Claims in other currencies</t>
-  </si>
-  <si>
-    <t>Claims in pounds sterling</t>
-  </si>
-  <si>
-    <t>Shares of Allocated Reserves</t>
-  </si>
-  <si>
-    <t>Shares of Australian dollars</t>
-  </si>
-  <si>
-    <t>Shares of Canadian dollars</t>
-  </si>
-  <si>
-    <t>Shares of Chinese renminbi</t>
-  </si>
-  <si>
-    <t>Shares of Japanese yen</t>
-  </si>
-  <si>
-    <t>Shares of Swiss francs</t>
-  </si>
-  <si>
-    <t>Shares of U.S. dollars</t>
-  </si>
-  <si>
-    <t>Shares of Unallocated Reserves</t>
-  </si>
-  <si>
-    <t>Shares of euro</t>
-  </si>
-  <si>
-    <t>Shares of other currencies</t>
-  </si>
-  <si>
-    <t>Shares of pounds sterling</t>
-  </si>
-  <si>
-    <t>Total Foreign Exchange Reserves</t>
-  </si>
-  <si>
-    <t>Unallocated Reserves</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -399,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -418,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -715,5669 +353,6341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1999Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2000Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2000Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2000Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2000Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2001Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2001Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2001Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2001Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2002Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2002Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2002Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2002Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2003Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2003Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2003Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2004Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2004Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2004Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2004Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2005Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2005Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2005Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2005Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2006Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2006Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2006Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2006Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2007Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2007Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2007Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2008Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2008Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2008Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2008Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2009Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2009Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2009Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2010Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2010Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2010Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2010Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2011Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2011Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2011Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2012Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2012Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2012Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2012Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2013Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2013Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2013Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2013Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2014Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2014Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2014Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2015Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2015Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2015Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2016Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2016Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2016Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2016Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2017Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2017Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2017Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2017Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2018Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2018Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2018Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2019Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2019Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2019Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2019Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2020Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2020Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2020Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2021Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2021Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2021Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2021Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2022Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Reserves</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1239414.424634232</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1273723.761787461</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1324244.50038278</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1379704.933663202</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1400590.71052123</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1441914.590663756</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>1465549.555826211</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>1518243.584377493</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>1507634.452072289</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>1510871.598339494</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>1581988.265336341</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>1569852.808186475</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>1576827.286514645</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>1690477.884240457</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>1741653.27924858</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>1795825.71062264</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>1845392.323089292</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>1962902.920513145</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>2060292.859668426</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>2222992.716535753</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>2428788.704640754</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>2427957.943956343</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>2477118.304714764</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>2654956.902267091</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>2692420.287010573</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>2727332.766431706</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>2760977.590819807</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>2843487.609560025</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>2936846.429146085</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>3040223.902561736</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>3143787.444082303</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>3321838.161029769</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>3518587.891177036</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>3718552.232629321</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>3898429.45123302</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>4122923.331008646</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>4385471.667765678</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>4431722.957338283</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>4360190.625155776</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>4209602.024904114</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>4081417.092340834</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>4293715.57982677</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>4457537.418611259</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>4583287.096519682</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>4662600.275604706</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>4783724.064369243</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>5108016.977342426</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>5155253.933788685</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>5339409.311899083</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>5501064.963119322</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>5592382.495407999</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>5643560.994479115</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>5706071.259974943</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>5839585.080619087</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>6015172.95346967</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>6085316.982722459</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>6081807.55291702</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>6069039.617868933</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>6189732.246283591</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>6223920.275949485</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>6955305.946019108</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>7038232.742070079</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>6914306.859229771</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>6800141.064587644</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>6745749.770175375</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>7329721.112794079</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>7244134.575302497</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>7413406.97117905</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>7763616.514246252</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>8054055.925390878</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>8351620.31020924</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>8417845.240426356</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>8832030.729909198</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>9255765.788322063</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>9641645.781849561</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>10012690.95803194</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>10399112.9147906</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>10509811.64242921</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>10705145.29726385</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>10726222.50882543</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>10892142.65449332</v>
       </c>
-      <c r="CE2">
-        <v>11016803.50876764</v>
-      </c>
-      <c r="CF2">
-        <v>10922515.37438929</v>
-      </c>
-      <c r="CG2">
-        <v>11071545.12888577</v>
-      </c>
-      <c r="CH2">
-        <v>10945584.80915441</v>
-      </c>
-      <c r="CI2">
-        <v>11257522.42728399</v>
-      </c>
-      <c r="CJ2">
-        <v>11459203.93532419</v>
-      </c>
-      <c r="CK2">
-        <v>11864528.99316138</v>
-      </c>
-      <c r="CL2">
-        <v>11730642.36030308</v>
-      </c>
-      <c r="CM2">
-        <v>11946281.74137278</v>
-      </c>
-      <c r="CN2">
-        <v>11970533.75259265</v>
-      </c>
-      <c r="CO2">
-        <v>12050534.70931398</v>
+      <c r="CE2" t="n">
+        <v>11016803.50904728</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>10922515.37349958</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>11071545.12893706</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>10945584.82055907</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>11257522.43031419</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>11459203.91053034</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>11864528.9957172</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>11730642.53939577</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>11946281.74267065</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>11970532.83249069</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>12050410.09838665</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>11679657.53280504</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Claims in Australian dollars</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="n">
         <v>88608.50800840707</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>101077.1305162503</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>102459.7442181802</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>104113.1694424422</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>113033.2139502537</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>118566.6687292188</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>121412.2716039271</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>116285.9518215989</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>108497.8855024884</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>105039.2989270895</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>127090.2773478478</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>120017.6451061651</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>131026.2793175787</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>133669.6193666859</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>136983.3095722325</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>150195.6213265743</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>142303.3888482034</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>156281.5124304453</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>162306.0404812575</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>171247.5751541339</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>180494.3596782168</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>177440.0373136618</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>179071.1100952561</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>181092.0973990417</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>174463.0445948399</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>182462.0256226811</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>187220.8388058743</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>182991.5092569001</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>187881.6511192465</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>170007.4117186085</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>190336.2716889497</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>199506.896801371</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>216870.6477927097</v>
       </c>
-      <c r="CL3">
-        <v>214890.4620359521</v>
-      </c>
-      <c r="CM3">
-        <v>218444.0176527824</v>
-      </c>
-      <c r="CN3">
-        <v>214258.1146154655</v>
-      </c>
-      <c r="CO3">
-        <v>218016.7642364252</v>
+      <c r="CL3" t="n">
+        <v>214890.4663175721</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>218444.0175853324</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>214239.3676699632</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>221300.7059833013</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>225484.0794429492</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Claims in Canadian dollars</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="n">
         <v>86752.34026246867</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>96026.14235459802</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>108987.8930731259</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>113575.3935039812</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>113801.5301373849</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>121037.9425634753</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>129810.5090685056</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>123975.7162904782</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>119024.274385554</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>115389.7643740562</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>130291.9567267472</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>126357.199180843</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>131608.72446326</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>140377.591677413</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>147673.9816002065</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>159851.5475397453</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>163143.7524776961</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>167491.7737222828</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>178770.3203160557</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>192885.6005830567</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>202797.8951477268</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>193295.144908217</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>200214.506727498</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>208726.0847045831</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>197216.3279921642</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>208644.7922258199</v>
       </c>
-      <c r="CE4">
-        <v>209849.2899951667</v>
-      </c>
-      <c r="CF4">
+      <c r="CE4" t="n">
+        <v>209849.2845114666</v>
+      </c>
+      <c r="CF4" t="n">
         <v>205441.8944942812</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>205988.8019085347</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>195267.7482636439</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>215466.6476770588</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>231102.894922266</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>246567.1229793553</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>250007.1830031097</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>270007.4596759846</v>
       </c>
-      <c r="CN4">
-        <v>264291.9668079347</v>
-      </c>
-      <c r="CO4">
-        <v>286929.9538521374</v>
+      <c r="CN4" t="n">
+        <v>264266.1385037407</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>286903.9954305968</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>287336.8837094014</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Claims in Chinese renminbi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
         <v>90777.37357825261</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>95419.8342682144</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>99996.45518215635</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>108155.4095161765</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>123473.4721754404</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>145667.7381812685</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>192749.5820335999</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>192636.0601244044</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>203085.0377667097</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>212264.3605826375</v>
       </c>
-      <c r="CE5">
-        <v>212796.798349458</v>
-      </c>
-      <c r="CF5">
-        <v>213826.6128584964</v>
-      </c>
-      <c r="CG5">
-        <v>214460.8473300903</v>
-      </c>
-      <c r="CH5">
-        <v>220331.7066424009</v>
-      </c>
-      <c r="CI5">
-        <v>233677.918082924</v>
-      </c>
-      <c r="CJ5">
-        <v>247444.3920088799</v>
-      </c>
-      <c r="CK5">
-        <v>271601.7482748029</v>
-      </c>
-      <c r="CL5">
-        <v>293317.9076280459</v>
-      </c>
-      <c r="CM5">
-        <v>314813.5743248848</v>
-      </c>
-      <c r="CN5">
-        <v>320150.2499659339</v>
-      </c>
-      <c r="CO5">
-        <v>336104.7351771021</v>
+      <c r="CE5" t="n">
+        <v>212796.7979115223</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>213826.6087160378</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>214460.8510572177</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>220331.7079191674</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>233677.9224288259</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>247444.3872506261</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>271601.7494561553</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>293317.9074656364</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>314813.5776166416</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>321264.5539419306</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>337229.0981265496</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>336386.3081576513</v>
       </c>
     </row>
-    <row r="6" spans="1:93">
-      <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Claims in Japanese yen</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>74773.49763019066</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>71673.74498103549</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>82726.0303669</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>87938.69489827777</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>88759.48550076153</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>86467.22659573027</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>94180.46513036954</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>92078.02127468</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>83110.01499581693</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>80912.71625561145</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>85446.78570421592</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>79189.82786074118</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>69125.47648185502</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>90226.65894370696</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>89426.78346355684</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>88734.40410558994</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>83195.00360193799</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>81050.61691154416</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>89458.45181184038</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>98338.17741033084</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>108416.9429887188</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>105105.8071912512</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>100531.6932526883</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>113740.5643198277</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>114513.9601056607</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>112648.0352978864</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>113753.7685173474</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>112605.8057612736</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>106866.6135144739</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>105364.2740383473</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>104987.3565171423</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>114964.4472624143</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>110415.9378603459</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>113787.1053706523</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>114927.1484023285</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>131026.8391473747</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>147589.0036215218</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>157948.2722236987</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>153943.8157418678</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>145966.1615989167</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>113764.1139017918</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>129511.1839340638</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>140778.6864326524</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>133003.1685118085</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>139291.7436278514</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>152772.1341829069</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>178612.1009388388</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>188821.9526538195</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>193549.4765458498</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>205068.8118166295</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>206634.7118190305</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>203912.7712278524</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>219980.9693573705</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>230911.4895334207</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>256885.3676006205</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>248808.6144952248</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>236184.4180493668</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>233321.2942010751</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>235243.1837959845</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>237981.3028061823</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>249091.8743220672</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>257723.4973080066</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>246833.4917032435</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>241054.1747334944</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>258125.3585454098</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>261227.7280517153</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>252572.2058242591</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>278305.8391159085</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>284140.5822617217</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>328532.7959300862</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>349945.3190729064</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>332757.9029587685</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>399661.8022420061</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>427596.7842533627</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>435332.7490030607</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>490307.8581928378</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>482040.4682579354</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>510838.5587873241</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>531838.5165328949</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>556905.5888125426</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>577992.238717317</v>
       </c>
-      <c r="CE6">
-        <v>606520.3237663727</v>
-      </c>
-      <c r="CF6">
-        <v>608714.3261442574</v>
-      </c>
-      <c r="CG6">
-        <v>649762.8105475408</v>
-      </c>
-      <c r="CH6">
-        <v>644366.4476582929</v>
-      </c>
-      <c r="CI6">
-        <v>643699.4140373052</v>
-      </c>
-      <c r="CJ6">
-        <v>668187.2372529758</v>
-      </c>
-      <c r="CK6">
-        <v>715347.5785981743</v>
-      </c>
-      <c r="CL6">
-        <v>686295.2911704339</v>
-      </c>
-      <c r="CM6">
-        <v>672197.7110121053</v>
-      </c>
-      <c r="CN6">
-        <v>681422.4812614236</v>
-      </c>
-      <c r="CO6">
-        <v>671770.7548436346</v>
+      <c r="CE6" t="n">
+        <v>606520.3259676453</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>608714.3273970042</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>649762.8058717051</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>644366.4526068447</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>643699.4157216016</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>668187.2357270386</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>715347.5799726403</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>686295.2960091106</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>672197.7070856655</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>679680.7837708995</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>664583.7660971405</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>625675.7875974907</v>
       </c>
     </row>
-    <row r="7" spans="1:93">
-      <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Claims in Swiss francs</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3571.276289787007</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3092.356768340917</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3193.2782022</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3171.864564295755</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>3589.77356264325</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>2924.848474697379</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>3279.12642092902</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>4086.584363889536</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>4131.281451353564</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>3967.162203762941</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>4149.776663193478</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>3849.549072963219</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>4902.867640814073</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>5212.490758799028</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>5575.524383574254</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>7314.160366497265</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>4437.21479083462</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>4080.302795448186</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>4668.952268164395</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>5015.670541648746</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>5463.801663269226</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>5711.05465847603</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>4178.090836400347</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>4418.59073314798</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>4578.496659750793</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>3632.657428713228</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>3987.708630868176</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>4143.063163978888</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>4710.1508275144</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>4488.598799091307</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>4964.351657510372</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>5717.076481659954</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>6040.102646714598</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>5714.392614902343</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>6252.831414225413</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>6395.144268131004</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>6601.333832514685</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>7067.77267870988</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>6461.756596842649</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>5799.366268549337</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>5647.592439399963</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>5272.977762804691</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>5309.434670610263</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>5300.188602926643</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>5542.314449979119</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>5282.717516701502</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>5211.878547320959</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>6628.492658516281</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>6310.237031364431</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>6449.32434575041</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>17024.98325454747</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>4357.200426521009</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>13952.91738568269</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>13689.76860846125</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>17803.17988678626</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>12942.49864455722</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>15830.332461388</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>15647.25490714004</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>16286.64754273864</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>16706.46645077368</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>16529.96526190699</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>17012.85112626327</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>15900.32014979515</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>16315.65340924009</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>17774.98890151901</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>21386.34557384108</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>18317.08527527509</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>19822.93785610565</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>14817.73051394827</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>14334.46412713392</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>14790.288466131</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>13694.38742003671</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>14452.11977706757</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>15600.08299167436</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>16045.20834376109</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>17603.76943063491</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>17455.85638431488</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>16720.20414559685</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>16683.45226978557</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>14782.38508554498</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>14755.3009671283</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>15018.56606413943</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>15686.45709588509</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>16564.39548659674</v>
       </c>
-      <c r="CH7">
-        <v>15589.513238757</v>
-      </c>
-      <c r="CI7">
+      <c r="CH7" t="n">
+        <v>15589.62393888031</v>
+      </c>
+      <c r="CI7" t="n">
         <v>17219.45968022097</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>19300.44462793013</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>20738.32377522018</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>19443.60206916793</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>23130.55030858838</v>
       </c>
-      <c r="CN7">
-        <v>23772.73586377993</v>
-      </c>
-      <c r="CO7">
-        <v>24505.45868017829</v>
+      <c r="CN7" t="n">
+        <v>23768.04829131841</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>21195.88087765874</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>26312.36568228687</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Claims in U.S. dollars</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>882325.1109600967</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>918685.1317993185</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>936038.9970404101</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>979782.7161266564</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1000859.104633178</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1038479.136195928</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1059574.233348636</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1079916.476607908</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1090119.106175078</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1098434.04395729</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1129526.018538241</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1122676.343403843</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>1129385.916249972</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>1157784.011506064</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>1175403.270200968</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>1194245.926719021</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>1224957.678198613</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>1299888.774679371</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>1373239.252478922</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>1454944.398446721</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>1629446.162014512</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1636271.839093305</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>1656885.885912035</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>1739173.123163512</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>1753906.445588979</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>1794800.812598945</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>1824345.054376494</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>1891335.999377719</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>1942946.400964202</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>1997695.621259875</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>2078395.824538119</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>2160670.904379551</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>2288985.905408027</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>2412583.359082709</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>2491264.13079741</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>2633502.781910379</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>2760057.833046094</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>2773754.392042515</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>2797906.333215434</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>2684267.571281559</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>2660234.448731821</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>2696711.840106344</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>2743922.916443016</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>2848309.202381203</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>2898630.131811476</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>3010176.026565711</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>3164342.110386145</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>3208610.924876058</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>3279607.710342587</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>3349122.340789965</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>3468529.541972477</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>3538078.357940122</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>3529112.310480068</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>3606543.836032647</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>3693517.270521306</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>3741924.933096569</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>3772298.894219327</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>3767040.443693854</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>3815599.267923416</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>3813459.570407925</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>4383938.727445448</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>4439374.074354189</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>4467603.801366879</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>4431383.257346965</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>4452124.563950413</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>4785795.811998427</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>4748089.648222431</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>4873916.256924701</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>5082418.628367577</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>5253271.05821571</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>5403875.870002475</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>5501929.906245414</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>5713409.545967961</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>5909266.282950168</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>6125751.713059218</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>6280659.97292743</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>6530052.745296706</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>6558997.611221692</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>6632121.650041876</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>6624672.110847</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>6729866.237381794</v>
       </c>
-      <c r="CE8">
-        <v>6754399.342314948</v>
-      </c>
-      <c r="CF8">
-        <v>6729797.580761319</v>
-      </c>
-      <c r="CG8">
-        <v>6725710.819771754</v>
-      </c>
-      <c r="CH8">
-        <v>6770172.916103238</v>
-      </c>
-      <c r="CI8">
-        <v>6901673.730207369</v>
-      </c>
-      <c r="CJ8">
-        <v>6927226.42014433</v>
-      </c>
-      <c r="CK8">
+      <c r="CE8" t="n">
+        <v>6754399.346314948</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6729797.582761319</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>6725710.820771754</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>6770172.810582455</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>6901673.727207369</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>6927226.40353269</v>
+      </c>
+      <c r="CK8" t="n">
         <v>6990974.501415295</v>
       </c>
-      <c r="CL8">
-        <v>6971791.327699647</v>
-      </c>
-      <c r="CM8">
-        <v>7070332.207891178</v>
-      </c>
-      <c r="CN8">
-        <v>7087771.50400226</v>
-      </c>
-      <c r="CO8">
-        <v>7087141.372003513</v>
+      <c r="CL8" t="n">
+        <v>6971791.497834447</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>7070332.280190888</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>7092627.465371213</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>7092987.30545211</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>6877563.777814159</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Claims in euro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>224608.50443104</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>223853.6556624</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>242702.35503122</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>246950.496655992</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>245173.1366678934</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>252549.032332835</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>248757.1079812201</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>277692.6085310365</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>266964.7631906586</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>266379.9124660659</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>299037.2374157986</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>301144.8988128427</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>310192.8954584833</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>361674.109973677</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>390610.5125823754</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>424714.7924005965</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>452430.7467066341</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>490157.1230644361</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>503723.7872232881</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>556478.8081855128</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>569203.3478590576</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>565924.6465427851</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>588745.2210693102</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>655230.1945652438</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>670428.5124784053</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>669523.4956113707</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>666068.9349903943</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>679299.1191159425</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>715735.4701510899</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>748954.7484481771</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>764105.2207085917</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>830280.9924879665</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>881967.9438286003</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>935846.7989244509</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>1013987.681601983</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>1077458.005241409</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>1164180.976521126</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>1179506.991893588</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>1103988.433711559</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>1103517.584412412</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>1053735.425296183</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>1183774.457606046</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>1249286.865651492</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>1269616.231970007</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>1261619.111270447</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>1244503.666728797</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>1347990.575872554</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>1327937.275756911</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>1398666.297732016</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>1457132.080376096</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>1417497.142086092</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>1379656.781969951</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>1404051.814081072</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>1448148.356317387</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>1445968.85399877</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>1464730.855916801</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>1423269.912199</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>1437185.436689096</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>1482237.362530428</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>1506927.580002312</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>1618174.942309973</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>1616502.982127297</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>1491912.921702973</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>1442575.818177561</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>1350655.182124495</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>1458519.209173402</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>1433795.737793719</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>1419423.444391893</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>1517958.991944162</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>1563371.430030648</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>1643313.31179362</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>1611025.860428638</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>1703274.388898153</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>1847337.858190193</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>1934824.028165674</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>2019378.262780446</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>2117757.199195823</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>2129515.658809978</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>2192353.945864675</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>2217578.019337837</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>2209020.322348506</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>2265082.712181532</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>2212927.686077059</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>2279459.182704447</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>2197398.345381604</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>2272432.339892589</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>2359639.115487681</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>2526413.707785242</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>2404795.379894884</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>2458880.670945703</v>
       </c>
-      <c r="CN9">
-        <v>2462440.641540717</v>
-      </c>
-      <c r="CO9">
-        <v>2486880.944388077</v>
+      <c r="CN9" t="n">
+        <v>2456727.483884744</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>2480554.540880143</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>2342905.009672902</v>
       </c>
     </row>
-    <row r="10" spans="1:93">
-      <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Claims in other currencies</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>20121.33343432728</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>20845.13022835</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>22554.52612399</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>22033.79052592047</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>21286.30668220475</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>21704.94973281681</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>19759.58457582284</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>22671.77034259669</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>21459.80310704782</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>21164.67408994036</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>22238.91449878116</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>20591.34826209266</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>21086.81486817819</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>27604.94523953961</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>30154.82396702425</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>28350.00428244156</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>31660.75171780455</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>36055.16048625913</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>37455.10038407335</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>44608.23747363438</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>47441.13149897857</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>45902.212963438</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>47511.03964574062</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>49659.95251183392</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>48288.63128675175</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>46741.60229564107</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>49048.99652264173</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>49545.63415807782</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>46530.61920604159</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>52339.49371960104</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>54304.63056734417</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>60047.27452877102</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>69537.68628745881</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>74198.62525803782</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>83393.47022160227</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>75647.80271363286</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>96283.32258574774</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>97476.96570634842</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>91602.60524460695</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>92506.21861324731</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>86615.47541916728</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>94565.35122115733</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>125971.3169070053</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>132153.6159584657</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>157014.1679307442</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>171343.6483550192</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>204559.1063453714</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>220075.5766625899</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>243590.4829436673</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>259794.9248476023</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>264196.0068767159</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>300988.6392902239</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>309508.6914705021</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>315835.401698263</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>353140.0027144659</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>195589.2095355296</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>201620.1096980162</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>172627.4799112416</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>179772.0202519803</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>173907.7971152676</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>185350.3290182721</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>190565.1133182956</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>192624.7318666654</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>189506.2372739963</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>188243.7312106579</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>209696.8084435224</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>211229.0235688191</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>209646.064935747</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>228997.8240787084</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>242489.1071604637</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>261572.1616617481</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>196354.740890336</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>204147.0922987013</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>205408.1912864877</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>223453.4326619424</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>243185.7134367898</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>255000.9604404081</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>251186.8476896392</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>268255.5177913124</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>262644.243782052</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>261183.5139008091</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>268260.5337756159</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>260666.6796377798</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>278198.3366732842</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>246406.0743181857</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>278660.4991494336</v>
       </c>
-      <c r="CJ10">
-        <v>283154.1226294843</v>
-      </c>
-      <c r="CK10">
+      <c r="CJ10" t="n">
+        <v>283154.1207314643</v>
+      </c>
+      <c r="CK10" t="n">
         <v>314627.3093240536</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>335819.9705784641</v>
       </c>
-      <c r="CM10">
-        <v>357572.3182323439</v>
-      </c>
-      <c r="CN10">
-        <v>354766.8732742724</v>
-      </c>
-      <c r="CO10">
-        <v>362964.8797828681</v>
+      <c r="CM10" t="n">
+        <v>357572.2479326354</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>359359.1604325598</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>366884.3502091584</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>377372.8512940902</v>
       </c>
     </row>
-    <row r="11" spans="1:93">
-      <c r="A11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Claims in pounds sterling</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>34014.70188879047</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>35573.74234801568</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>37029.31361806</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>39827.3708920595</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>40922.90347454983</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>39789.3973317486</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>39999.03836923277</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>41798.12325738231</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>41849.48315233421</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>40013.08936682332</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>41589.53251611099</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>42400.84077399199</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>42133.31581534188</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>47975.66781867023</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>50482.36465108113</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>52466.42274849448</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>48710.92807346856</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>51670.94257608652</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>51747.3155021385</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>63607.42447790483</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>68817.31861621776</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>69042.38350708772</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>79266.37399859024</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>92734.47697352644</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>100704.2408910259</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>99986.16319914897</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>103773.1277820613</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>106557.9879830338</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>120057.1744827634</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>131381.166296644</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>137030.0600935952</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>150157.4658894056</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>161640.3151458888</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>176421.9513785685</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>188604.1887954708</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>198892.7577277194</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>210759.1981586746</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>215968.562793423</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>206287.6806454654</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>177545.1227294295</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>161420.03655247</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>183879.7691963547</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>192268.1985064823</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>194904.6890952704</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>200502.806514209</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>199645.8710201067</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>207301.2052521957</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>203179.7111807905</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>217685.107303599</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>223497.4809432783</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>218500.1093991365</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>216567.2436244442</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>229464.557200247</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>224456.2284289095</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>247858.2787477213</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>245960.0227629028</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>235500.6134190742</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>231770.0711752192</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>242905.2012926199</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>248102.8150793855</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>262615.4963687462</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>265831.4431635951</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>259169.924328139</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>251783.7637583444</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>258396.8821417341</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>335712.975478576</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>333756.0303309861</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>349657.4241738571</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>361235.5460360357</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>367399.7787543962</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>368076.1903460404</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>365857.9275790101</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>377892.6603043687</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>409483.7726707057</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>433950.0653625393</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>454789.6542624169</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>480402.7648122641</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>470517.5629186247</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>481437.9725352727</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>474875.7506067388</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>495953.8627466208</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>497655.1035145323</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>492462.6280633105</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>513518.283344273</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>486044.645829678</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>504356.1468681393</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>523642.4114492753</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>561388.0532165297</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>554281.236223379</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>560903.2313292085</v>
       </c>
-      <c r="CN11">
-        <v>561659.1852608604</v>
-      </c>
-      <c r="CO11">
-        <v>576219.8463500385</v>
+      <c r="CN11" t="n">
+        <v>558599.830624318</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>578770.4553299963</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>580620.4694341148</v>
       </c>
     </row>
-    <row r="12" spans="1:93">
-      <c r="A12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Allocated Reserves</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>77.17804431788925</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>77.34854640516133</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>77.25645031488573</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>77.39385247002618</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>77.40238173967523</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>77.78777377598378</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>78.24150564881685</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>78.38576531225696</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>78.01831679391447</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>78.08919407750621</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>77.98957050375613</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>76.56845376804402</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>75.72453197316219</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>75.54886778956308</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>75.46315850233454</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>74.55903228655892</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>73.75049125596837</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>73.53443752269932</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>72.73417835240966</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>73.46979324951202</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>73.67405709061555</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>72.66287854482057</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>71.99051250533303</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>70.81133275799132</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>68.42318663460169</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>67.54017480385328</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>66.34048220604841</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>65.80637267083276</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>64.90684481655987</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>63.84301713425029</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>63.46636904368221</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>63.22795288259431</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>62.93633868440858</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>62.41470067175755</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>61.87321827931015</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>61.47876204428039</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>60.53037117533838</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>59.4025456173801</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>58.13705660288081</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>57.29078334218086</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>56.97469561863998</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>56.75738342521596</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>56.55549433854653</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>56.12501653458739</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>56.22552713596743</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>56.80292959221453</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>56.80846878806886</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>55.63862713067876</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>55.00712166610686</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>54.51572593468084</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>54.98732547423134</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>55.30165108926701</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>54.64312738288225</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>55.43107602462744</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>55.75516788022381</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>55.56729414129956</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>54.77460617826493</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>54.4603331391875</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>54.03476575792936</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>53.20669760489629</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>58.63200726832156</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>58.60351565879086</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>58.6971668013801</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>58.59136141638673</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>58.93424508101496</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>63.89953816375166</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>64.71839728048056</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>67.81210337990633</v>
       </c>
-      <c r="BR12">
-        <v>70.99845806390015</v>
-      </c>
-      <c r="BS12">
-        <v>73.3664964611902</v>
-      </c>
-      <c r="BT12">
-        <v>75.89352380370939</v>
-      </c>
-      <c r="BU12">
-        <v>78.48862094699535</v>
-      </c>
-      <c r="BV12">
-        <v>80.93923345044145</v>
-      </c>
-      <c r="BW12">
-        <v>83.14334248639021</v>
-      </c>
-      <c r="BX12">
-        <v>85.27052715382095</v>
-      </c>
-      <c r="BY12">
-        <v>87.39552671489096</v>
-      </c>
-      <c r="BZ12">
-        <v>89.51300997789589</v>
-      </c>
-      <c r="CA12">
-        <v>91.54651382983772</v>
-      </c>
-      <c r="CB12">
-        <v>93.82165584365598</v>
-      </c>
-      <c r="CC12">
-        <v>93.79542128997556</v>
-      </c>
-      <c r="CD12">
-        <v>93.8107957000468</v>
-      </c>
-      <c r="CE12">
-        <v>93.85056994759903</v>
-      </c>
-      <c r="CF12">
-        <v>93.69582389860595</v>
-      </c>
-      <c r="CG12">
-        <v>93.61892579207637</v>
-      </c>
-      <c r="CH12">
-        <v>93.51155398486958</v>
-      </c>
-      <c r="CI12">
-        <v>93.68812846451678</v>
-      </c>
-      <c r="CJ12">
-        <v>93.53694294078414</v>
-      </c>
-      <c r="CK12">
-        <v>93.37980838121436</v>
-      </c>
-      <c r="CL12">
-        <v>93.23248527772434</v>
-      </c>
-      <c r="CM12">
-        <v>93.24207038042121</v>
-      </c>
-      <c r="CN12">
-        <v>93.29237445941324</v>
-      </c>
-      <c r="CO12">
-        <v>93.14589225563797</v>
+      <c r="BR12" t="n">
+        <v>71.02249016990785</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>73.39122612603541</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>75.91891079649743</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>78.51993351883547</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>80.97097118297097</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>83.17530181810339</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>85.30280014208354</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>87.42938674280974</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>89.54724784279428</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>91.58193792752535</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>93.85817755622563</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>93.82012538767106</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>93.83521922718728</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>93.87444174851967</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>93.72050419053122</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>93.64959407024533</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>93.5433381708585</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>93.71612194939824</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>93.56470903975595</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>93.40955100471105</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>93.25758112071657</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>93.26329701481473</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>93.30984627471504</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>93.26250389258888</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>93.06410047287868</v>
       </c>
     </row>
-    <row r="13" spans="1:93">
-      <c r="A13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Australian dollars</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="n">
         <v>1.456103408581441</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>1.661958712714785</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>1.68823653608242</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>1.682030260758909</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>1.816109605179832</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>1.704693792759481</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>1.725039168969246</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>1.681816474002323</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>1.595524040927637</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>1.557118222669543</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>1.733903314902539</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>1.656756150214857</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>1.767423262030087</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>1.721744229914008</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>1.700799086090085</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>1.798400977867388</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>1.690496615033942</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>1.769485605402236</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>1.753566848958494</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>1.7761239007194</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>1.802655853803503</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>1.706299746599442</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>1.703846997336539</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>1.691636053228791</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>1.626509653806766</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>1.675171097280941</v>
       </c>
-      <c r="CE13">
-        <v>1.699411618414325</v>
-      </c>
-      <c r="CF13">
-        <v>1.675360509777554</v>
-      </c>
-      <c r="CG13">
-        <v>1.696977693105016</v>
-      </c>
-      <c r="CH13">
-        <v>1.553205376257482</v>
-      </c>
-      <c r="CI13">
-        <v>1.690747435045266</v>
-      </c>
-      <c r="CJ13">
-        <v>1.741018817078298</v>
-      </c>
-      <c r="CK13">
-        <v>1.827890916847287</v>
-      </c>
-      <c r="CL13">
-        <v>1.83187293104382</v>
-      </c>
-      <c r="CM13">
-        <v>1.828552367857351</v>
-      </c>
-      <c r="CN13">
-        <v>1.789879374167925</v>
-      </c>
-      <c r="CO13">
-        <v>1.809187471722046</v>
+      <c r="CE13" t="n">
+        <v>1.69941161837119</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>1.675360509914023</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>1.696977693097154</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>1.553205374639133</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1.690747434590166</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1.741018820845275</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>1.827890916453528</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>1.831872939575915</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>1.828552367094083</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>1.789722902630282</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>1.836457881320817</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>1.930570984719582</v>
       </c>
     </row>
-    <row r="14" spans="1:93">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Canadian dollars</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="n">
         <v>1.42560100827578</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>1.57890794009983</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>1.795801311829229</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>1.834899943728156</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>1.828454175050049</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>1.74022456384901</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>1.844362268564677</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>1.793031735711663</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>1.750320666219467</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>1.710555065120008</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>1.777584095243701</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>1.744269075448072</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>1.775279908076172</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>1.808146904471903</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>1.833535587140086</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>1.914018377300253</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>1.938070228402454</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>1.896412941081385</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>1.931448184888267</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>2.000546431047743</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>2.025408514032357</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>1.858765709075958</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>1.905024690634902</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>1.949773486567547</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>1.838637300595775</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>1.915553246447319</v>
       </c>
-      <c r="CE14">
-        <v>1.904811044584391</v>
-      </c>
-      <c r="CF14">
-        <v>1.880902772414437</v>
-      </c>
-      <c r="CG14">
-        <v>1.86052443006449</v>
-      </c>
-      <c r="CH14">
-        <v>1.783986435337202</v>
-      </c>
-      <c r="CI14">
-        <v>1.913979288682996</v>
-      </c>
-      <c r="CJ14">
-        <v>2.016744760164947</v>
-      </c>
-      <c r="CK14">
-        <v>2.078187200869707</v>
-      </c>
-      <c r="CL14">
-        <v>2.13123182281256</v>
-      </c>
-      <c r="CM14">
-        <v>2.260179908036869</v>
-      </c>
-      <c r="CN14">
-        <v>2.20785448895036</v>
-      </c>
-      <c r="CO14">
-        <v>2.381055785270395</v>
+      <c r="CE14" t="n">
+        <v>1.90481099476026</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>1.880902772567649</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>1.860524430055871</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>1.783986433478392</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>1.913979288167808</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>2.016744764528502</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>2.07818720042203</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>2.131231790274867</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>2.260179907791319</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>2.207638892952732</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>2.380864992047103</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>2.460148192721821</v>
       </c>
     </row>
-    <row r="15" spans="1:93">
-      <c r="A15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Chinese renminbi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="n">
         <v>1.078392046723525</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>1.080383857192438</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>1.080369333765135</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>1.121752571742259</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>1.233169711249232</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>1.400770809730185</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>1.833996541436097</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>1.799471700525547</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>1.89335096861559</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>1.948784250407081</v>
       </c>
-      <c r="CE15">
-        <v>1.931565704880779</v>
-      </c>
-      <c r="CF15">
-        <v>1.957668225030556</v>
-      </c>
-      <c r="CG15">
-        <v>1.937045325051874</v>
-      </c>
-      <c r="CH15">
-        <v>2.012973363087234</v>
-      </c>
-      <c r="CI15">
-        <v>2.075749078825523</v>
-      </c>
-      <c r="CJ15">
-        <v>2.159350626845087</v>
-      </c>
-      <c r="CK15">
-        <v>2.28919115483937</v>
-      </c>
-      <c r="CL15">
-        <v>2.500441993020299</v>
-      </c>
-      <c r="CM15">
-        <v>2.635243175578318</v>
-      </c>
-      <c r="CN15">
-        <v>2.674486005242615</v>
-      </c>
-      <c r="CO15">
-        <v>2.789127148999649</v>
+      <c r="CE15" t="n">
+        <v>1.931565700856589</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1.957668187264154</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>1.937045358706923</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>2.012973372654504</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>2.075749116871217</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>2.159350589993769</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>2.289191164303251</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>2.500441953461356</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>2.635243202846675</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>2.68379493576048</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>2.79848648612962</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>2.880104208645089</v>
       </c>
     </row>
-    <row r="16" spans="1:93">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Japanese yen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>6.03296977540481</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5.627102762097587</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>6.247035977343126</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>6.373732002595302</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>6.337289318999527</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>5.996695446151694</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>6.426290039525469</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>6.064772624244854</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>5.512610492654882</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>5.355366819029336</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>5.401227529715549</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>5.044411007693316</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>4.383833097830719</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>5.337346308097159</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>5.134591627912256</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>4.941147884269034</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4.508255646293401</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>4.129119991851445</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>4.342026008197562</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>4.423684192882926</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>4.463827700679088</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>4.32897972771233</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>4.058413078670635</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>4.284083264127699</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>4.253197788552058</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>4.130337034203163</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>4.120054030701892</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>3.960129996089454</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>3.638821984489883</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>3.465674812620409</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>3.339518284379083</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>3.460868401450821</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>3.138075309621146</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>3.059984054337068</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>2.948037147779566</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>3.178008141987928</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>3.365407755483594</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>3.564037593147819</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>3.530667096381086</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>3.467457511075325</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>2.787367998122049</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>3.016296294578714</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>3.158216593872404</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>2.901916587612512</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>2.987426229879554</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>3.193581655781616</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>3.49670139569047</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>3.662709055246305</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>3.624923006268075</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>3.727802038177483</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>3.69493166800915</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>3.613193361909841</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>3.855208940351307</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>3.95424480242251</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>4.270623132331449</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>4.088671390523232</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>3.883457606876849</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>3.844451657789687</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>3.800538931829048</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>3.823656027950604</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>3.581321601886337</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>3.661764348420868</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>3.569894954455924</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>3.544840797330014</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>3.82648878686022</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>3.563951807057713</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>3.48657528651326</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>3.754088237673615</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>3.659899761152849</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>4.0790975251906</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>4.190148810346706</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" t="n">
         <v>3.953005709355554</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" t="n">
         <v>4.525140530688743</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" t="n">
         <v>4.61978829231892</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" t="n">
         <v>4.515129043866934</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" t="n">
         <v>4.896863992386828</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" t="n">
         <v>4.635399886583903</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" t="n">
         <v>4.860587193827675</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" t="n">
         <v>4.968064437844005</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" t="n">
         <v>5.192001082900585</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" t="n">
         <v>5.306506323426447</v>
       </c>
-      <c r="CE16">
-        <v>5.505411104806202</v>
-      </c>
-      <c r="CF16">
-        <v>5.573023294355331</v>
-      </c>
-      <c r="CG16">
-        <v>5.868763600595398</v>
-      </c>
-      <c r="CH16">
-        <v>5.886998811789143</v>
-      </c>
-      <c r="CI16">
-        <v>5.717949204144782</v>
-      </c>
-      <c r="CJ16">
-        <v>5.831009213416814</v>
-      </c>
-      <c r="CK16">
-        <v>6.029296055582948</v>
-      </c>
-      <c r="CL16">
-        <v>5.850449362371508</v>
-      </c>
-      <c r="CM16">
-        <v>5.626836245491573</v>
-      </c>
-      <c r="CN16">
-        <v>5.692498725162002</v>
-      </c>
-      <c r="CO16">
-        <v>5.574613666930616</v>
+      <c r="CE16" t="n">
+        <v>5.505411124647503</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>5.57302330627869</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>5.8687635583353</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>5.886998850865717</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>5.717949217567194</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>5.831009212716891</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>6.029296065868802</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>5.850449314300397</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>5.626836212012798</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>5.677949288323195</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>5.515030282547122</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>5.356970320748997</v>
       </c>
     </row>
-    <row r="17" spans="1:93">
-      <c r="A17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Swiss francs</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>0.2881422241669439</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.2427808023304289</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.2411396234816883</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.2298944134289829</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.2563042533180385</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0.2028447796863603</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.2237472221865876</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.2691652647796374</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>0.2740240809484682</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>0.2625744112287904</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>0.2623139977786882</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>0.2452171982550577</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>0.3109324453441679</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>0.3083442148159801</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>0.3201282626114746</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>0.407286760804941</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>0.2404483174291344</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>0.207870840315501</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>0.226615951526221</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>0.2256269444492387</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>0.224959942082627</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>0.2352204935300444</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>0.168667391801517</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>0.1664279645886119</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>0.1700513356640301</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>0.1331945068612218</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>0.144431039358205</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>0.1457035771863253</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>0.1603812436622339</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>0.1476404022515957</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>0.1579099015378728</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>0.1721058102327195</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>0.1716626906453107</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>0.1536725117038843</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>0.1603936018964696</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>0.1551118891790421</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>0.1505273396482333</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>0.1594813743265852</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>0.1481989470726819</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>0.1377651909667502</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>0.1383733225893087</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>0.1228068712231151</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>0.1191113875666446</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>0.115641645205934</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>0.1188674585504828</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>0.1104310667926883</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>0.1020333051052734</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>0.1285774230260834</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>0.1181823056213694</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>0.1172377419461228</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>0.3044316669778395</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>0.07720657986656819</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>0.2445275698457359</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>0.2344305018158914</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>0.2959712052255628</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>0.2126840504989928</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>0.2602899273554832</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>0.2578209386056764</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>0.2631236198062911</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>0.2684235290630396</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>0.2376597865025329</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>0.241720496461722</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>0.2299626046907381</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>0.2399311022267663</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>0.2634990847141502</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>0.2917757066706271</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>0.2528540170653885</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>0.2673930884028204</v>
       </c>
-      <c r="BR17">
+      <c r="BR17" t="n">
         <v>0.1908611854637294</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="n">
         <v>0.1779782045210747</v>
       </c>
-      <c r="BT17">
+      <c r="BT17" t="n">
         <v>0.177094838088496</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" t="n">
         <v>0.1626828128684283</v>
       </c>
-      <c r="BV17">
+      <c r="BV17" t="n">
         <v>0.1636330332063524</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" t="n">
         <v>0.1685444872790199</v>
       </c>
-      <c r="BX17">
+      <c r="BX17" t="n">
         <v>0.1664156587661234</v>
       </c>
-      <c r="BY17">
+      <c r="BY17" t="n">
         <v>0.1758145687749765</v>
       </c>
-      <c r="BZ17">
+      <c r="BZ17" t="n">
         <v>0.1678590907450145</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" t="n">
         <v>0.1590913777949705</v>
       </c>
-      <c r="CB17">
+      <c r="CB17" t="n">
         <v>0.1558451735732138</v>
       </c>
-      <c r="CC17">
+      <c r="CC17" t="n">
         <v>0.1378153872286556</v>
       </c>
-      <c r="CD17">
+      <c r="CD17" t="n">
         <v>0.1354673863093533</v>
       </c>
-      <c r="CE17">
-        <v>0.1363241710917965</v>
-      </c>
-      <c r="CF17">
-        <v>0.1436157932326295</v>
-      </c>
-      <c r="CG17">
-        <v>0.1496123196335087</v>
-      </c>
-      <c r="CH17">
-        <v>0.1424274126104127</v>
-      </c>
-      <c r="CI17">
-        <v>0.1529595858364669</v>
-      </c>
-      <c r="CJ17">
-        <v>0.1684274469401359</v>
-      </c>
-      <c r="CK17">
-        <v>0.1747926427351105</v>
-      </c>
-      <c r="CL17">
-        <v>0.1657505315733244</v>
-      </c>
-      <c r="CM17">
-        <v>0.1936213359884344</v>
-      </c>
-      <c r="CN17">
-        <v>0.1985937833275905</v>
-      </c>
-      <c r="CO17">
-        <v>0.2033557785716992</v>
+      <c r="CE17" t="n">
+        <v>0.1363241710883362</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.143615793244328</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.1496123196328156</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.1424284238298382</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.1529595857952946</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.1684274473045561</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.1747926426974573</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.1657505290427974</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.193621335967399</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.1985546393290584</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.1758934401784094</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0.2252837089476507</v>
       </c>
     </row>
-    <row r="18" spans="1:93">
-      <c r="A18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Shares of U.S. dollars</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>71.18886898710112</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>72.12593180409038</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>70.68475623420319</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>71.01393147339647</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>71.45978458337107</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>72.0208494261706</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>72.29876527452504</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>71.12932916167684</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>72.30659293283436</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>72.70201155177655</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>71.39914013825482</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>71.51475205505292</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>71.62394549540812</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>68.48856304477854</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>67.48778785109771</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>66.50121554975161</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>66.379255124892</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>66.22277449867731</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>66.65262397210483</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>65.44980501393923</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>67.08883975378689</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>67.39292347160716</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>66.88763644265356</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>65.50664237443614</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" t="n">
         <v>65.14237223848743</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>65.80791440962173</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="n">
         <v>66.0760543816945</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>66.51465591124439</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="n">
         <v>66.15757574798118</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" t="n">
         <v>65.70883215465113</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="n">
         <v>66.11120699175703</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="n">
         <v>65.04443623194888</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="n">
         <v>65.05410625517491</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="n">
         <v>64.87964154202065</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="n">
         <v>63.90430202628028</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="n">
         <v>63.87464841035765</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="n">
         <v>62.93639640482036</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" t="n">
         <v>62.58862340322029</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" t="n">
         <v>64.16935803386976</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" t="n">
         <v>63.76535252979647</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" t="n">
         <v>65.17918626165415</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" t="n">
         <v>62.80601940138622</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" t="n">
         <v>61.55692389673496</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" t="n">
         <v>62.14555497830513</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="n">
         <v>62.16767384022737</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" t="n">
         <v>62.92536914882897</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" t="n">
         <v>61.94854332752187</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" t="n">
         <v>62.23962904806891</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" t="n">
         <v>61.42266904007251</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" t="n">
         <v>60.8813450348872</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" t="n">
         <v>62.02239465595469</v>
       </c>
-      <c r="BA18">
+      <c r="BA18" t="n">
         <v>62.6923029874452</v>
       </c>
-      <c r="BB18">
+      <c r="BB18" t="n">
         <v>61.84837429625031</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" t="n">
         <v>61.76027553742392</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" t="n">
         <v>61.40334283141124</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" t="n">
         <v>61.49104383092465</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" t="n">
         <v>62.02594970980325</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" t="n">
         <v>62.06979490795618</v>
       </c>
-      <c r="BH18">
+      <c r="BH18" t="n">
         <v>61.64401166487225</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" t="n">
         <v>61.27102214248986</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ18" t="n">
         <v>63.03013500009457</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" t="n">
         <v>63.07512463772951</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" t="n">
         <v>64.61390696600576</v>
       </c>
-      <c r="BM18">
+      <c r="BM18" t="n">
         <v>65.16604898718644</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" t="n">
         <v>65.99895809409288</v>
       </c>
-      <c r="BO18">
+      <c r="BO18" t="n">
         <v>65.29301372251103</v>
       </c>
-      <c r="BP18">
+      <c r="BP18" t="n">
         <v>65.54391830889146</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ18" t="n">
         <v>65.74462019787831</v>
       </c>
-      <c r="BR18">
+      <c r="BR18" t="n">
         <v>65.46457593624477</v>
       </c>
-      <c r="BS18">
+      <c r="BS18" t="n">
         <v>65.22516241356692</v>
       </c>
-      <c r="BT18">
+      <c r="BT18" t="n">
         <v>64.70452043176142</v>
       </c>
-      <c r="BU18">
+      <c r="BU18" t="n">
         <v>65.36031192189922</v>
       </c>
-      <c r="BV18">
+      <c r="BV18" t="n">
         <v>64.68964749658087</v>
       </c>
-      <c r="BW18">
+      <c r="BW18" t="n">
         <v>63.84416393083163</v>
       </c>
-      <c r="BX18">
+      <c r="BX18" t="n">
         <v>63.53429540619477</v>
       </c>
-      <c r="BY18">
+      <c r="BY18" t="n">
         <v>62.726993165501</v>
       </c>
-      <c r="BZ18">
+      <c r="BZ18" t="n">
         <v>62.79432485062306</v>
       </c>
-      <c r="CA18">
+      <c r="CA18" t="n">
         <v>62.40832694605422</v>
       </c>
-      <c r="CB18">
+      <c r="CB18" t="n">
         <v>61.95265422261009</v>
       </c>
-      <c r="CC18">
+      <c r="CC18" t="n">
         <v>61.76146453605904</v>
       </c>
-      <c r="CD18">
+      <c r="CD18" t="n">
         <v>61.78643129141847</v>
       </c>
-      <c r="CE18">
-        <v>61.30997377723503</v>
-      </c>
-      <c r="CF18">
-        <v>61.61399045993656</v>
-      </c>
-      <c r="CG18">
-        <v>60.74771625348217</v>
-      </c>
-      <c r="CH18">
-        <v>61.8530031437056</v>
-      </c>
-      <c r="CI18">
-        <v>61.30721723885102</v>
-      </c>
-      <c r="CJ18">
-        <v>60.45120114138497</v>
-      </c>
-      <c r="CK18">
-        <v>58.92332098008135</v>
-      </c>
-      <c r="CL18">
-        <v>59.43230654863743</v>
-      </c>
-      <c r="CM18">
-        <v>59.18437519688622</v>
-      </c>
-      <c r="CN18">
-        <v>59.21015428795855</v>
-      </c>
-      <c r="CO18">
-        <v>58.81184149053396</v>
+      <c r="CE18" t="n">
+        <v>61.30997381198699</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>61.61399048326622</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>60.74771626223292</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>61.85300211520954</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>61.30721719570005</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>60.45120112721767</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>58.92332096738828</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>59.43230709162462</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>59.18437579566312</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>59.25072479748139</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>58.86096197175681</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>58.88497807831193</v>
       </c>
     </row>
-    <row r="19" spans="1:93">
-      <c r="A19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Shares of Unallocated Reserves</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>22.82195568211075</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>22.65145359483867</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>22.74354968511428</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>22.60614752997382</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>22.59761826032477</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>22.21222622401622</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>21.75849435118315</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>21.61423468774304</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>21.98168320608553</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>21.91080592249379</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>22.01042949624388</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>23.43154623195598</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>24.27546802683782</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>24.45113221043692</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>24.53684149766546</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>25.44096771344109</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>26.24950874403162</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>26.46556247730068</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>27.26582164759034</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>26.53020675048798</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>26.32594290938446</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>27.33712145517943</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>28.00948749466697</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>29.18866724200868</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>31.57681336539832</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>32.45982519614671</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>33.65951779395159</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>34.19362732916724</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>35.09315518344012</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>36.15698286574971</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>36.53363095631779</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>36.77204711740569</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="n">
         <v>37.06366131559142</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="n">
         <v>37.58529932824244</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="n">
         <v>38.12678172068985</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="n">
         <v>38.52123795571961</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="n">
         <v>39.46962882466162</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" t="n">
         <v>40.5974543826199</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" t="n">
         <v>41.8629433971192</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" t="n">
         <v>42.70921665781914</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" t="n">
         <v>43.02530438136002</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" t="n">
         <v>43.24261657478404</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" t="n">
         <v>43.44450566145347</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" t="n">
         <v>43.8749834654126</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" t="n">
         <v>43.77447286403257</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" t="n">
         <v>43.19707040778546</v>
       </c>
-      <c r="AV19">
+      <c r="AV19" t="n">
         <v>43.19153121193114</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" t="n">
         <v>44.36137286932124</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" t="n">
         <v>44.99287833389314</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" t="n">
         <v>45.48427406531916</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" t="n">
         <v>45.01267452576865</v>
       </c>
-      <c r="BA19">
+      <c r="BA19" t="n">
         <v>44.69834891073299</v>
       </c>
-      <c r="BB19">
+      <c r="BB19" t="n">
         <v>45.35687261711775</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" t="n">
         <v>44.56892397537256</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" t="n">
         <v>44.24483211977619</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" t="n">
         <v>44.43270585870044</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" t="n">
         <v>45.22539382173508</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" t="n">
         <v>45.5396668608125</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" t="n">
         <v>45.96523424207064</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" t="n">
         <v>46.79330239510371</v>
       </c>
-      <c r="BJ19">
+      <c r="BJ19" t="n">
         <v>41.36799273167844</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" t="n">
         <v>41.39648434120913</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" t="n">
         <v>41.3028331986199</v>
       </c>
-      <c r="BM19">
+      <c r="BM19" t="n">
         <v>41.40863858361328</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" t="n">
         <v>41.06575491898504</v>
       </c>
-      <c r="BO19">
+      <c r="BO19" t="n">
         <v>36.10046183624834</v>
       </c>
-      <c r="BP19">
+      <c r="BP19" t="n">
         <v>35.28160271951943</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ19" t="n">
         <v>32.18789662009367</v>
       </c>
-      <c r="BR19">
-        <v>29.00154193609985</v>
-      </c>
-      <c r="BS19">
-        <v>26.6335035388098</v>
-      </c>
-      <c r="BT19">
-        <v>24.10647619629061</v>
-      </c>
-      <c r="BU19">
-        <v>21.51137905300464</v>
-      </c>
-      <c r="BV19">
-        <v>19.06076654955855</v>
-      </c>
-      <c r="BW19">
-        <v>16.8566575136098</v>
-      </c>
-      <c r="BX19">
-        <v>14.72947284617905</v>
-      </c>
-      <c r="BY19">
-        <v>12.60447328510903</v>
-      </c>
-      <c r="BZ19">
-        <v>10.48699002210411</v>
-      </c>
-      <c r="CA19">
-        <v>8.453486170162275</v>
-      </c>
-      <c r="CB19">
-        <v>6.178344156344029</v>
-      </c>
-      <c r="CC19">
-        <v>6.204578710024428</v>
-      </c>
-      <c r="CD19">
-        <v>6.189204299953195</v>
-      </c>
-      <c r="CE19">
-        <v>6.149430052400971</v>
-      </c>
-      <c r="CF19">
-        <v>6.304176101394054</v>
-      </c>
-      <c r="CG19">
-        <v>6.381074207923637</v>
-      </c>
-      <c r="CH19">
-        <v>6.488446015130424</v>
-      </c>
-      <c r="CI19">
-        <v>6.311871535483229</v>
-      </c>
-      <c r="CJ19">
-        <v>6.46305705921586</v>
-      </c>
-      <c r="CK19">
-        <v>6.620191618785647</v>
-      </c>
-      <c r="CL19">
-        <v>6.767514722275672</v>
-      </c>
-      <c r="CM19">
-        <v>6.757929619578787</v>
-      </c>
-      <c r="CN19">
-        <v>6.707625540586763</v>
-      </c>
-      <c r="CO19">
-        <v>6.854107744362022</v>
+      <c r="BR19" t="n">
+        <v>28.97750983009216</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>26.60877387396459</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>24.08108920350257</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>21.48006648116453</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>19.02902881702903</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>16.8246981818966</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>14.69719985791646</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>12.57061325719027</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>10.45275215720572</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>8.418062072474658</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>6.141822443774374</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>6.179874612328953</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>6.164780772812721</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>6.125558251480338</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>6.279495809468782</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>6.35040592975468</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>6.4566618291415</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>6.283878050601756</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>6.435290960244044</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>6.590448995288957</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>6.742418879283439</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>6.73670298518527</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>6.690153725284952</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>6.737496107411117</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>6.935899527121324</v>
       </c>
     </row>
-    <row r="20" spans="1:93">
-      <c r="A20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Shares of euro</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>18.12214703708366</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>17.57474127264913</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>18.32760906018983</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>17.89879057693322</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>17.50498092170353</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>17.51483991965012</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>16.97364016060051</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>18.29038577132506</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>17.70752604012912</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>17.63087695597876</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>18.90262045352286</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>19.18300220520237</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>19.67196395644073</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>21.39478506908593</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>22.42757024239065</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>23.65011202859666</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>24.51677841323406</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>24.97103233899608</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>24.44913522169635</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>25.03286691162504</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>23.43568820010835</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>23.3086675966312</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>23.76734368918658</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>24.67950398764428</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" t="n">
         <v>24.90058909869492</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="n">
         <v>24.54865441620968</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" t="n">
         <v>24.12438757942331</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" t="n">
         <v>23.88964582901949</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" t="n">
         <v>24.37088514564231</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" t="n">
         <v>24.63485494660762</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" t="n">
         <v>24.30524436844172</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" t="n">
         <v>24.9946250310575</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" t="n">
         <v>25.06596313936512</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" t="n">
         <v>25.16696661438935</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" t="n">
         <v>26.01015855965464</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" t="n">
         <v>26.13335050734052</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" t="n">
         <v>26.54631165623871</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" t="n">
         <v>26.61508860657676</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" t="n">
         <v>25.31972862246399</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" t="n">
         <v>26.21429716833027</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" t="n">
         <v>25.81788142343056</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" t="n">
         <v>27.56993181308496</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" t="n">
         <v>28.02639099417154</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" t="n">
         <v>27.70099723698499</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" t="n">
         <v>27.05827299567994</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" t="n">
         <v>26.01537316916484</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" t="n">
         <v>26.38970429917951</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" t="n">
         <v>25.75891106068149</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" t="n">
         <v>26.19515036270086</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" t="n">
         <v>26.48818165473626</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" t="n">
         <v>25.34692759749576</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" t="n">
         <v>24.44656455949742</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" t="n">
         <v>24.60627899847219</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" t="n">
         <v>24.79882279862015</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" t="n">
         <v>24.03869124269663</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" t="n">
         <v>24.06991879100942</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" t="n">
         <v>23.40208728762481</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" t="n">
         <v>23.68060726540035</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" t="n">
         <v>23.94671212830549</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" t="n">
         <v>24.21187150846696</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ20" t="n">
         <v>23.26533088362764</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" t="n">
         <v>22.96745562937795</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" t="n">
         <v>21.57718701349576</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" t="n">
         <v>21.21391018915632</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" t="n">
         <v>20.02231372554131</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" t="n">
         <v>19.898699919531</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" t="n">
         <v>19.79250554899924</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" t="n">
         <v>19.14670879273398</v>
       </c>
-      <c r="BR20">
+      <c r="BR20" t="n">
         <v>19.55221499102518</v>
       </c>
-      <c r="BS20">
+      <c r="BS20" t="n">
         <v>19.41098304398445</v>
       </c>
-      <c r="BT20">
+      <c r="BT20" t="n">
         <v>19.67658072032789</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" t="n">
         <v>19.13822141433241</v>
       </c>
-      <c r="BV20">
+      <c r="BV20" t="n">
         <v>19.28519545488112</v>
       </c>
-      <c r="BW20">
+      <c r="BW20" t="n">
         <v>19.95877921328743</v>
       </c>
-      <c r="BX20">
+      <c r="BX20" t="n">
         <v>20.06736268830772</v>
       </c>
-      <c r="BY20">
+      <c r="BY20" t="n">
         <v>20.16818726598717</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ20" t="n">
         <v>20.36478704047678</v>
       </c>
-      <c r="CA20">
+      <c r="CA20" t="n">
         <v>20.26216768921815</v>
       </c>
-      <c r="CB20">
+      <c r="CB20" t="n">
         <v>20.47944128721937</v>
       </c>
-      <c r="CC20">
+      <c r="CC20" t="n">
         <v>20.6743615239497</v>
       </c>
-      <c r="CD20">
+      <c r="CD20" t="n">
         <v>20.28086109795141</v>
       </c>
-      <c r="CE20">
-        <v>20.56025334734239</v>
-      </c>
-      <c r="CF20">
-        <v>20.26023869250713</v>
-      </c>
-      <c r="CG20">
-        <v>20.5884468352779</v>
-      </c>
-      <c r="CH20">
-        <v>20.07565958050771</v>
-      </c>
-      <c r="CI20">
-        <v>20.18590106811664</v>
-      </c>
-      <c r="CJ20">
-        <v>20.59164954917895</v>
-      </c>
-      <c r="CK20">
-        <v>21.29383904950164</v>
-      </c>
-      <c r="CL20">
-        <v>20.5001167543288</v>
-      </c>
-      <c r="CM20">
-        <v>20.58281165787361</v>
-      </c>
-      <c r="CN20">
-        <v>20.57085082782869</v>
-      </c>
-      <c r="CO20">
-        <v>20.63710038083159</v>
+      <c r="CE20" t="n">
+        <v>20.56025334682051</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>20.26023869415746</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>20.58844683518252</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>20.07565955959004</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>20.18590106268318</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>20.59164959373233</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>21.29383904491459</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>20.50011644135182</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>20.58281165563745</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>20.52312556394014</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>20.58481429783246</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>20.0597064005713</v>
       </c>
     </row>
-    <row r="21" spans="1:93">
-      <c r="A21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Shares of other currencies</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>1.623454837575039</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>1.636550314418042</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>1.70319953131544</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>1.596992950327386</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>1.519809214947816</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>1.505286781433108</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>1.348271335982445</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>1.493289388862627</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>1.423408909072798</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>1.400825464798012</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>1.405757235124183</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>1.311673817743473</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>1.337293884277436</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>1.632966955491566</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>1.731390761083875</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>1.57866123169671</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>1.715665082252138</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>1.836828510950176</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>1.81795030780727</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>2.006674927084357</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>1.953283602164795</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>1.890568701064097</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>1.917996389405852</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>1.870461718961572</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" t="n">
         <v>1.793502727628278</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" t="n">
         <v>1.713821022170142</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" t="n">
         <v>1.776508316682056</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" t="n">
         <v>1.742424830391438</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" t="n">
         <v>1.58437359012915</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" t="n">
         <v>1.721567075224264</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" t="n">
         <v>1.727363300898867</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" t="n">
         <v>1.807652017284201</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" t="n">
         <v>1.976295276347271</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" t="n">
         <v>1.995363265492531</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" t="n">
         <v>2.139155556482523</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" t="n">
         <v>1.834809833709086</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" t="n">
         <v>2.195506661084016</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" t="n">
         <v>2.199527512091902</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" t="n">
         <v>2.100885330932849</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" t="n">
         <v>2.197505086371066</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" t="n">
         <v>2.122191225731608</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" t="n">
         <v>2.202413025805789</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" t="n">
         <v>2.826029376243612</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" t="n">
         <v>2.883380708549035</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" t="n">
         <v>3.367523670263169</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" t="n">
         <v>3.581804595111229</v>
       </c>
-      <c r="AV21">
+      <c r="AV21" t="n">
         <v>4.004667706719299</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" t="n">
         <v>4.268957057966929</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" t="n">
         <v>4.562124173563849</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" t="n">
         <v>4.722629646974542</v>
       </c>
-      <c r="AZ21">
+      <c r="AZ21" t="n">
         <v>4.724212034739251</v>
       </c>
-      <c r="BA21">
+      <c r="BA21" t="n">
         <v>5.333310645258727</v>
       </c>
-      <c r="BB21">
+      <c r="BB21" t="n">
         <v>5.424199547621164</v>
       </c>
-      <c r="BC21">
+      <c r="BC21" t="n">
         <v>5.408524704032216</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" t="n">
         <v>5.870820431036281</v>
       </c>
-      <c r="BE21">
+      <c r="BE21" t="n">
         <v>3.214117031057708</v>
       </c>
-      <c r="BF21">
+      <c r="BF21" t="n">
         <v>3.315134652712137</v>
       </c>
-      <c r="BG21">
+      <c r="BG21" t="n">
         <v>2.844395337327812</v>
       </c>
-      <c r="BH21">
+      <c r="BH21" t="n">
         <v>2.904358590953885</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" t="n">
         <v>2.794184202315112</v>
       </c>
-      <c r="BJ21">
+      <c r="BJ21" t="n">
         <v>2.664876720834372</v>
       </c>
-      <c r="BK21">
+      <c r="BK21" t="n">
         <v>2.70757049819081</v>
       </c>
-      <c r="BL21">
+      <c r="BL21" t="n">
         <v>2.785886362702207</v>
       </c>
-      <c r="BM21">
+      <c r="BM21" t="n">
         <v>2.786798618941411</v>
       </c>
-      <c r="BN21">
+      <c r="BN21" t="n">
         <v>2.790553127881054</v>
       </c>
-      <c r="BO21">
+      <c r="BO21" t="n">
         <v>2.860911148140346</v>
       </c>
-      <c r="BP21">
+      <c r="BP21" t="n">
         <v>2.915862776610533</v>
       </c>
-      <c r="BQ21">
+      <c r="BQ21" t="n">
         <v>2.827931418722642</v>
       </c>
-      <c r="BR21">
+      <c r="BR21" t="n">
         <v>2.949628226207425</v>
       </c>
-      <c r="BS21">
+      <c r="BS21" t="n">
         <v>3.010770094059103</v>
       </c>
-      <c r="BT21">
+      <c r="BT21" t="n">
         <v>3.13199297796136</v>
       </c>
-      <c r="BU21">
+      <c r="BU21" t="n">
         <v>2.332600983768987</v>
       </c>
-      <c r="BV21">
+      <c r="BV21" t="n">
         <v>2.311440013533559</v>
       </c>
-      <c r="BW21">
+      <c r="BW21" t="n">
         <v>2.2192457759211</v>
       </c>
-      <c r="BX21">
+      <c r="BX21" t="n">
         <v>2.317585998467133</v>
       </c>
-      <c r="BY21">
+      <c r="BY21" t="n">
         <v>2.428774786479475</v>
       </c>
-      <c r="BZ21">
+      <c r="BZ21" t="n">
         <v>2.452141471391485</v>
       </c>
-      <c r="CA21">
+      <c r="CA21" t="n">
         <v>2.390022354687801</v>
       </c>
-      <c r="CB21">
+      <c r="CB21" t="n">
         <v>2.505855925747</v>
       </c>
-      <c r="CC21">
+      <c r="CC21" t="n">
         <v>2.448618267670197</v>
       </c>
-      <c r="CD21">
+      <c r="CD21" t="n">
         <v>2.397907575999875</v>
       </c>
-      <c r="CE21">
-        <v>2.435012420455015</v>
-      </c>
-      <c r="CF21">
-        <v>2.386507784177457</v>
-      </c>
-      <c r="CG21">
-        <v>2.512732716479312</v>
-      </c>
-      <c r="CH21">
-        <v>2.251191495150652</v>
-      </c>
-      <c r="CI21">
-        <v>2.475327061965835</v>
-      </c>
-      <c r="CJ21">
-        <v>2.470975507789264</v>
-      </c>
-      <c r="CK21">
-        <v>2.651831433893434</v>
-      </c>
-      <c r="CL21">
-        <v>2.862758579316091</v>
-      </c>
-      <c r="CM21">
-        <v>2.993168301011912</v>
-      </c>
-      <c r="CN21">
-        <v>2.963667958393543</v>
-      </c>
-      <c r="CO21">
-        <v>3.012023022533008</v>
+      <c r="CE21" t="n">
+        <v>2.435012420393208</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>2.386507784371854</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>2.512732716467671</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>2.251191492805042</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>2.475327061299548</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>2.470975496572341</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>2.651831433322185</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>2.862758535610119</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>2.993167712221547</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>3.002031450573186</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>3.044579787855337</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>3.231026682367616</v>
       </c>
     </row>
-    <row r="22" spans="1:93">
-      <c r="A22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Shares of pounds sterling</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>2.744417138668421</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>2.79289304441442</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>2.796259573466718</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>2.886658583318635</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>2.921831707660002</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>2.759483646908127</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>2.729285967179944</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>2.753057789110982</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>2.775837544360361</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>2.648344797188539</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>2.62894064560389</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>2.700943716052863</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>2.672031120698809</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>2.837994407730807</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>2.898531254904035</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>2.921576544881049</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>2.639597415899275</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>2.63237381920949</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>2.511648538667773</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>2.861342010019214</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>2.833400801178242</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>2.843640009455171</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>3.199943008281859</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>3.4928806902417</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" t="n">
         <v>3.740286810973299</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" t="n">
         <v>3.666078610934061</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" t="n">
         <v>3.758564652140053</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" t="n">
         <v>3.747439856068919</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" t="n">
         <v>4.087962288095231</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" t="n">
         <v>4.321430608644986</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" t="n">
         <v>4.358757152985431</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" t="n">
         <v>4.520312508025884</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" t="n">
         <v>4.593897328846231</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" t="n">
         <v>4.744372012056522</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" t="n">
         <v>4.837953107906516</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" t="n">
         <v>4.824071217425758</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" t="n">
         <v>4.805850182725107</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" t="n">
         <v>4.873241510636642</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" t="n">
         <v>4.731161969279621</v>
       </c>
-      <c r="AO22">
+      <c r="AO22" t="n">
         <v>4.217622513460131</v>
       </c>
-      <c r="AP22">
+      <c r="AP22" t="n">
         <v>3.954999768472327</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" t="n">
         <v>4.282532593921214</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" t="n">
         <v>4.31332775141085</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" t="n">
         <v>4.252508843342397</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" t="n">
         <v>4.300235805399492</v>
       </c>
-      <c r="AU22">
+      <c r="AU22" t="n">
         <v>4.173440364320657</v>
       </c>
-      <c r="AV22">
+      <c r="AV22" t="n">
         <v>4.058349965783577</v>
       </c>
-      <c r="AW22">
+      <c r="AW22" t="n">
         <v>3.941216355010281</v>
       </c>
-      <c r="AX22">
+      <c r="AX22" t="n">
         <v>4.076951111773342</v>
       </c>
-      <c r="AY22">
+      <c r="AY22" t="n">
         <v>4.062803883278381</v>
       </c>
-      <c r="AZ22">
+      <c r="AZ22" t="n">
         <v>3.907102376823308</v>
       </c>
-      <c r="BA22">
+      <c r="BA22" t="n">
         <v>3.837421866022248</v>
       </c>
-      <c r="BB22">
+      <c r="BB22" t="n">
         <v>4.021410647459294</v>
       </c>
-      <c r="BC22">
+      <c r="BC22" t="n">
         <v>3.843701655685331</v>
       </c>
-      <c r="BD22">
+      <c r="BD22" t="n">
         <v>4.12055115729884</v>
       </c>
-      <c r="BE22">
+      <c r="BE22" t="n">
         <v>4.041860489128782</v>
       </c>
-      <c r="BF22">
+      <c r="BF22" t="n">
         <v>3.872214162812846</v>
       </c>
-      <c r="BG22">
+      <c r="BG22" t="n">
         <v>3.818892045008636</v>
       </c>
-      <c r="BH22">
+      <c r="BH22" t="n">
         <v>3.924324859745976</v>
       </c>
-      <c r="BI22">
+      <c r="BI22" t="n">
         <v>3.986278809484532</v>
       </c>
-      <c r="BJ22">
+      <c r="BJ22" t="n">
         <v>3.775757650446061</v>
       </c>
-      <c r="BK22">
+      <c r="BK22" t="n">
         <v>3.776962952285221</v>
       </c>
-      <c r="BL22">
+      <c r="BL22" t="n">
         <v>3.748313888935638</v>
       </c>
-      <c r="BM22">
+      <c r="BM22" t="n">
         <v>3.70262559801195</v>
       </c>
-      <c r="BN22">
+      <c r="BN22" t="n">
         <v>3.830513893120829</v>
       </c>
-      <c r="BO22">
+      <c r="BO22" t="n">
         <v>4.580160285943031</v>
       </c>
-      <c r="BP22">
+      <c r="BP22" t="n">
         <v>4.607258836257183</v>
       </c>
-      <c r="BQ22">
+      <c r="BQ22" t="n">
         <v>4.716555094482376</v>
       </c>
-      <c r="BR22">
+      <c r="BR22" t="n">
         <v>4.652928765520138</v>
       </c>
-      <c r="BS22">
+      <c r="BS22" t="n">
         <v>4.561674045447674</v>
       </c>
-      <c r="BT22">
+      <c r="BT22" t="n">
         <v>4.407242866346479</v>
       </c>
-      <c r="BU22">
+      <c r="BU22" t="n">
         <v>4.346218267615475</v>
       </c>
-      <c r="BV22">
+      <c r="BV22" t="n">
         <v>4.278661067433285</v>
       </c>
-      <c r="BW22">
+      <c r="BW22" t="n">
         <v>4.424093932749991</v>
       </c>
-      <c r="BX22">
+      <c r="BX22" t="n">
         <v>4.500788300887927</v>
       </c>
-      <c r="BY22">
+      <c r="BY22" t="n">
         <v>4.542132141785477</v>
       </c>
-      <c r="BZ22">
+      <c r="BZ22" t="n">
         <v>4.619651394774164</v>
       </c>
-      <c r="CA22">
+      <c r="CA22" t="n">
         <v>4.476936209009647</v>
       </c>
-      <c r="CB22">
+      <c r="CB22" t="n">
         <v>4.497257712684428</v>
       </c>
-      <c r="CC22">
+      <c r="CC22" t="n">
         <v>4.427241279173686</v>
       </c>
-      <c r="CD22">
+      <c r="CD22" t="n">
         <v>4.553317730759117</v>
       </c>
-      <c r="CE22">
-        <v>4.517236811190081</v>
-      </c>
-      <c r="CF22">
-        <v>4.508692468568356</v>
-      </c>
-      <c r="CG22">
-        <v>4.638180826310312</v>
-      </c>
-      <c r="CH22">
-        <v>4.440554381554575</v>
-      </c>
-      <c r="CI22">
-        <v>4.480170038531482</v>
-      </c>
-      <c r="CJ22">
-        <v>4.569622937201536</v>
-      </c>
-      <c r="CK22">
-        <v>4.731650565649165</v>
-      </c>
-      <c r="CL22">
-        <v>4.725071476896156</v>
-      </c>
-      <c r="CM22">
-        <v>4.695211811275712</v>
-      </c>
-      <c r="CN22">
-        <v>4.692014548968737</v>
-      </c>
-      <c r="CO22">
-        <v>4.781695254607023</v>
+      <c r="CE22" t="n">
+        <v>4.517236811075422</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>4.508692468935618</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>4.638180826288825</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>4.440554376927777</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>4.48017003732555</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4.569622947088657</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>4.731650564629889</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>4.7250714047581</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>4.695211810765615</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>4.666457529009517</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>4.80291086033233</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>4.971211422966013</v>
       </c>
     </row>
-    <row r="23" spans="1:93">
-      <c r="A23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Total Foreign Exchange Reserves</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>1605915.82177076</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1646732.642027346</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>1714089.237837563</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1782706.106014747</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>1809493.040190661</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>1853651.956689539</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>1873110.114220268</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>1936886.854812769</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1932410.89275831</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>1934802.396398024</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>2028461.312349642</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>2050260.558927018</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>2082320.280399348</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>2237595.259467267</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>2307951.739383794</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>2408595.787188592</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>2502210.211298018</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>2669365.519940528</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>2832633.716828355</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>3025723.386734203</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>3296667.51167709</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>3341400.715991052</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>3440895.499294106</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>3749338.981291056</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" t="n">
         <v>3934953.07575899</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="n">
         <v>4038089.58794123</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" t="n">
         <v>4161829.246649766</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" t="n">
         <v>4320991.256854884</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" t="n">
         <v>4524709.893765779</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" t="n">
         <v>4762030.42874477</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" t="n">
         <v>4953469.832059429</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" t="n">
         <v>5253749.34595458</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" t="n">
         <v>5590709.5403513</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" t="n">
         <v>5957814.733720182</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" t="n">
         <v>6300673.47335094</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" t="n">
         <v>6706256.264625318</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" t="n">
         <v>7245076.451063349</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" t="n">
         <v>7460493.33623447</v>
       </c>
-      <c r="AN23">
+      <c r="AN23" t="n">
         <v>7499847.566998635</v>
       </c>
-      <c r="AO23">
+      <c r="AO23" t="n">
         <v>7347782.27723194</v>
       </c>
-      <c r="AP23">
+      <c r="AP23" t="n">
         <v>7163561.03007516</v>
       </c>
-      <c r="AQ23">
+      <c r="AQ23" t="n">
         <v>7565034.398536375</v>
       </c>
-      <c r="AR23">
+      <c r="AR23" t="n">
         <v>7881705.34223964</v>
       </c>
-      <c r="AS23">
+      <c r="AS23" t="n">
         <v>8166210.683778065</v>
       </c>
-      <c r="AT23">
+      <c r="AT23" t="n">
         <v>8292675.076801625</v>
       </c>
-      <c r="AU23">
+      <c r="AU23" t="n">
         <v>8421615.044701681</v>
       </c>
-      <c r="AV23">
+      <c r="AV23" t="n">
         <v>8991646.99615215</v>
       </c>
-      <c r="AW23">
+      <c r="AW23" t="n">
         <v>9265602.333573962</v>
       </c>
-      <c r="AX23">
+      <c r="AX23" t="n">
         <v>9706760.05246973</v>
       </c>
-      <c r="AY23">
+      <c r="AY23" t="n">
         <v>10090785.4913471</v>
       </c>
-      <c r="AZ23">
+      <c r="AZ23" t="n">
         <v>10170311.88037824</v>
       </c>
-      <c r="BA23">
+      <c r="BA23" t="n">
         <v>10205049.72874928</v>
       </c>
-      <c r="BB23">
+      <c r="BB23" t="n">
         <v>10442431.70782068</v>
       </c>
-      <c r="BC23">
+      <c r="BC23" t="n">
         <v>10534857.88012598</v>
       </c>
-      <c r="BD23">
+      <c r="BD23" t="n">
         <v>10788547.82823322</v>
       </c>
-      <c r="BE23">
+      <c r="BE23" t="n">
         <v>10951256.62813161</v>
       </c>
-      <c r="BF23">
+      <c r="BF23" t="n">
         <v>11103334.14926557</v>
       </c>
-      <c r="BG23">
+      <c r="BG23" t="n">
         <v>11143963.4464922</v>
       </c>
-      <c r="BH23">
+      <c r="BH23" t="n">
         <v>11455092.21602441</v>
       </c>
-      <c r="BI23">
+      <c r="BI23" t="n">
         <v>11697625.5924907</v>
       </c>
-      <c r="BJ23">
+      <c r="BJ23" t="n">
         <v>11862643.4094079</v>
       </c>
-      <c r="BK23">
+      <c r="BK23" t="n">
         <v>12009915.55361458</v>
       </c>
-      <c r="BL23">
+      <c r="BL23" t="n">
         <v>11779626.23413572</v>
       </c>
-      <c r="BM23">
+      <c r="BM23" t="n">
         <v>11606047.2059381</v>
       </c>
-      <c r="BN23">
+      <c r="BN23" t="n">
         <v>11446230.89835496</v>
       </c>
-      <c r="BO23">
+      <c r="BO23" t="n">
         <v>11470694.9743684</v>
       </c>
-      <c r="BP23">
+      <c r="BP23" t="n">
         <v>11193315.77991251</v>
       </c>
-      <c r="BQ23">
+      <c r="BQ23" t="n">
         <v>10932276.98549128</v>
       </c>
-      <c r="BR23">
-        <v>10934908.62471806</v>
-      </c>
-      <c r="BS23">
-        <v>10977839.08715248</v>
-      </c>
-      <c r="BT23">
-        <v>11004391.27297584</v>
-      </c>
-      <c r="BU23">
-        <v>10724924.37612207</v>
-      </c>
-      <c r="BV23">
-        <v>10911927.81720251</v>
-      </c>
-      <c r="BW23">
-        <v>11132299.36580568</v>
-      </c>
-      <c r="BX23">
-        <v>11307125.80732242</v>
-      </c>
-      <c r="BY23">
-        <v>11456754.52096785</v>
-      </c>
-      <c r="BZ23">
-        <v>11617431.83181811</v>
-      </c>
-      <c r="CA23">
-        <v>11480296.95807351</v>
-      </c>
-      <c r="CB23">
-        <v>11410100.57966026</v>
-      </c>
-      <c r="CC23">
-        <v>11435763.45338277</v>
-      </c>
-      <c r="CD23">
-        <v>11610756.06833157</v>
-      </c>
-      <c r="CE23">
-        <v>11738664.4693994</v>
-      </c>
-      <c r="CF23">
-        <v>11657419.63719666</v>
-      </c>
-      <c r="CG23">
-        <v>11826182.6176848</v>
-      </c>
-      <c r="CH23">
-        <v>11705061.399071</v>
-      </c>
-      <c r="CI23">
-        <v>12015954.00803383</v>
-      </c>
-      <c r="CJ23">
-        <v>12250992.57581972</v>
-      </c>
-      <c r="CK23">
-        <v>12705668.60099514</v>
-      </c>
-      <c r="CL23">
-        <v>12582140.57617301</v>
-      </c>
-      <c r="CM23">
-        <v>12812115.4888912</v>
-      </c>
-      <c r="CN23">
-        <v>12831202.7879625</v>
-      </c>
-      <c r="CO23">
-        <v>12937269.07059026</v>
+      <c r="BR23" t="n">
+        <v>10931208.54488947</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>10974140.0307982</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>11000711.44671184</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10720647.437134</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>10907650.7307185</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>11128021.88390438</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>11302847.93206093</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>11452317.49993419</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>11612989.97490898</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>11475856.35362542</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>11405660.72769838</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>11432752.2634445</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>11607734.00882884</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>11735679.38604653</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>11654349.77952573</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>11822309.79093453</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>11701084.26167855</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>12012364.78435659</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>12247356.96624813</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>12701622.97977304</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>12578754.8834353</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>12809199.46543708</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>12828799.22151843</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>12920959.22308198</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>12550121.33944045</v>
       </c>
     </row>
-    <row r="24" spans="1:93">
-      <c r="A24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Unallocated Reserves</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>366501.3971365273</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>373008.880239885</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>389844.7374547827</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>403001.1723515452</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>408902.3296694307</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>411737.3660257837</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>407560.5583940572</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>418643.2704352768</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>424776.440686021</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>423930.79805853</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>446473.0470133013</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>480407.7507405432</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>505492.9938847034</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>547117.3752268106</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>566298.4601352146</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>612770.0765659519</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>656817.8882087254</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>706462.5994273823</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>772340.8571599282</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>802730.6701984511</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>867878.8070363359</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>913442.772034709</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>963777.1945793413</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>1094382.079023964</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" t="n">
         <v>1242532.788748417</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" t="n">
         <v>1310756.821509524</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" t="n">
         <v>1400851.65582996</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" t="n">
         <v>1477503.647294859</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" t="n">
         <v>1587863.464619694</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" t="n">
         <v>1721806.526183034</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" t="n">
         <v>1809682.387977126</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" t="n">
         <v>1931911.184924812</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" t="n">
         <v>2072121.649174264</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" t="n">
         <v>2239262.501090861</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" t="n">
         <v>2402244.02211792</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" t="n">
         <v>2583332.933616672</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" t="n">
         <v>2859604.783297671</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" t="n">
         <v>3028770.378896187</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" t="n">
         <v>3139656.94184286</v>
       </c>
-      <c r="AO24">
+      <c r="AO24" t="n">
         <v>3138180.252327826</v>
       </c>
-      <c r="AP24">
+      <c r="AP24" t="n">
         <v>3082143.937734327</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ24" t="n">
         <v>3271318.818709605</v>
       </c>
-      <c r="AR24">
+      <c r="AR24" t="n">
         <v>3424167.923628381</v>
       </c>
-      <c r="AS24">
+      <c r="AS24" t="n">
         <v>3582923.587258384</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" t="n">
         <v>3630074.801196919</v>
       </c>
-      <c r="AU24">
+      <c r="AU24" t="n">
         <v>3637890.980332437</v>
       </c>
-      <c r="AV24">
+      <c r="AV24" t="n">
         <v>3883630.018809725</v>
       </c>
-      <c r="AW24">
+      <c r="AW24" t="n">
         <v>4110348.399785276</v>
       </c>
-      <c r="AX24">
+      <c r="AX24" t="n">
         <v>4367350.740570648</v>
       </c>
-      <c r="AY24">
+      <c r="AY24" t="n">
         <v>4589720.528227777</v>
       </c>
-      <c r="AZ24">
+      <c r="AZ24" t="n">
         <v>4577929.384970238</v>
       </c>
-      <c r="BA24">
+      <c r="BA24" t="n">
         <v>4561488.734270162</v>
       </c>
-      <c r="BB24">
+      <c r="BB24" t="n">
         <v>4736360.447845741</v>
       </c>
-      <c r="BC24">
+      <c r="BC24" t="n">
         <v>4695272.799506894</v>
       </c>
-      <c r="BD24">
+      <c r="BD24" t="n">
         <v>4773374.874763547</v>
       </c>
-      <c r="BE24">
+      <c r="BE24" t="n">
         <v>4865939.645409157</v>
       </c>
-      <c r="BF24">
+      <c r="BF24" t="n">
         <v>5021526.596348554</v>
       </c>
-      <c r="BG24">
+      <c r="BG24" t="n">
         <v>5074923.828623267</v>
       </c>
-      <c r="BH24">
+      <c r="BH24" t="n">
         <v>5265359.969740821</v>
       </c>
-      <c r="BI24">
+      <c r="BI24" t="n">
         <v>5473705.316541214</v>
       </c>
-      <c r="BJ24">
+      <c r="BJ24" t="n">
         <v>4907337.463388792</v>
       </c>
-      <c r="BK24">
+      <c r="BK24" t="n">
         <v>4971682.811544499</v>
       </c>
-      <c r="BL24">
+      <c r="BL24" t="n">
         <v>4865319.374905948</v>
       </c>
-      <c r="BM24">
+      <c r="BM24" t="n">
         <v>4805906.141350455</v>
       </c>
-      <c r="BN24">
+      <c r="BN24" t="n">
         <v>4700481.12817959</v>
       </c>
-      <c r="BO24">
+      <c r="BO24" t="n">
         <v>4140973.861574322</v>
       </c>
-      <c r="BP24">
+      <c r="BP24" t="n">
         <v>3949181.204610009</v>
       </c>
-      <c r="BQ24">
+      <c r="BQ24" t="n">
         <v>3518870.014312224</v>
       </c>
-      <c r="BR24">
-        <v>3171292.110471809</v>
-      </c>
-      <c r="BS24">
-        <v>2923783.161761601</v>
-      </c>
-      <c r="BT24">
-        <v>2652770.962766604</v>
-      </c>
-      <c r="BU24">
-        <v>2307079.135695711</v>
-      </c>
-      <c r="BV24">
-        <v>2079897.087293311</v>
-      </c>
-      <c r="BW24">
-        <v>1876533.577483619</v>
-      </c>
-      <c r="BX24">
-        <v>1665480.025472859</v>
-      </c>
-      <c r="BY24">
-        <v>1444063.562935914</v>
-      </c>
-      <c r="BZ24">
-        <v>1218318.917027512</v>
-      </c>
-      <c r="CA24">
-        <v>970485.3156443047</v>
-      </c>
-      <c r="CB24">
-        <v>704955.2823964161</v>
-      </c>
-      <c r="CC24">
-        <v>709540.9445573417</v>
-      </c>
-      <c r="CD24">
-        <v>718613.4138382539</v>
-      </c>
-      <c r="CE24">
-        <v>721860.9606317617</v>
-      </c>
-      <c r="CF24">
-        <v>734904.2628073691</v>
-      </c>
-      <c r="CG24">
-        <v>754637.4887990332</v>
-      </c>
-      <c r="CH24">
-        <v>759476.5899165918</v>
-      </c>
-      <c r="CI24">
-        <v>758431.5807498437</v>
-      </c>
-      <c r="CJ24">
-        <v>791788.6404955273</v>
-      </c>
-      <c r="CK24">
-        <v>841139.6078337597</v>
-      </c>
-      <c r="CL24">
-        <v>851498.2158699296</v>
-      </c>
-      <c r="CM24">
-        <v>865833.7475184199</v>
-      </c>
-      <c r="CN24">
-        <v>860669.0353698535</v>
-      </c>
-      <c r="CO24">
-        <v>886734.3612762793</v>
+      <c r="BR24" t="n">
+        <v>3167592.030643221</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>2920084.105407321</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>2649091.136502596</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2302802.196707644</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>2075620.000809301</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1872256.095582316</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>1661202.150211373</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>1439626.541902248</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1213877.060118383</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>966044.7111962149</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>700515.4304345391</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>706529.7546190703</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>715591.3543355234</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>718875.87699925</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>731834.4060261523</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>750764.6619974746</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>755499.4411194824</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>754842.3540423984</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>788153.0557177851</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>837093.9840558438</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>848112.3440395293</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>862917.7227664356</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>858266.3890277422</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>870549.1246953262</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>870463.8066354024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FOREX/data/FOREX_7_historical.xlsx
+++ b/FOREX/data/FOREX_7_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP24"/>
+  <dimension ref="A1:CR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,16 @@
           <t>2022Q1</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2022Q3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1092,31 +1102,37 @@
         <v>11071545.12893706</v>
       </c>
       <c r="CH2" t="n">
-        <v>10945584.82055907</v>
+        <v>10945583.81449199</v>
       </c>
       <c r="CI2" t="n">
-        <v>11257522.43031419</v>
+        <v>11257521.49622161</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11459203.91053034</v>
+        <v>11459144.32186881</v>
       </c>
       <c r="CK2" t="n">
-        <v>11864528.9957172</v>
+        <v>11864417.27189374</v>
       </c>
       <c r="CL2" t="n">
-        <v>11730642.53939577</v>
+        <v>11730601.30789211</v>
       </c>
       <c r="CM2" t="n">
-        <v>11946281.74267065</v>
+        <v>11946224.74699317</v>
       </c>
       <c r="CN2" t="n">
-        <v>11970532.83249069</v>
+        <v>11970211.66363719</v>
       </c>
       <c r="CO2" t="n">
-        <v>12050410.09838665</v>
+        <v>12048127.99850074</v>
       </c>
       <c r="CP2" t="n">
-        <v>11679657.53280504</v>
+        <v>11680064.85098698</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>11172446.62761348</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>10773070.7839311</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1305,16 @@
         <v>214239.3676699632</v>
       </c>
       <c r="CO3" t="n">
-        <v>221300.7059833013</v>
+        <v>221321.0980784152</v>
       </c>
       <c r="CP3" t="n">
-        <v>225484.0794429492</v>
+        <v>222332.7081737359</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>209982.5685698717</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>206258.608157574</v>
       </c>
     </row>
     <row r="4">
@@ -1447,16 +1469,16 @@
         <v>195267.7482636439</v>
       </c>
       <c r="CI4" t="n">
-        <v>215466.6476770588</v>
+        <v>215466.6610814198</v>
       </c>
       <c r="CJ4" t="n">
-        <v>231102.894922266</v>
+        <v>231102.9314738461</v>
       </c>
       <c r="CK4" t="n">
-        <v>246567.1229793553</v>
+        <v>246567.1553914157</v>
       </c>
       <c r="CL4" t="n">
-        <v>250007.1830031097</v>
+        <v>250007.1595713888</v>
       </c>
       <c r="CM4" t="n">
         <v>270007.4596759846</v>
@@ -1465,10 +1487,16 @@
         <v>264266.1385037407</v>
       </c>
       <c r="CO4" t="n">
-        <v>286903.9954305968</v>
+        <v>286931.9973172567</v>
       </c>
       <c r="CP4" t="n">
-        <v>287336.8837094014</v>
+        <v>287318.4291992913</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>277825.5639056537</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>264153.9176349656</v>
       </c>
     </row>
     <row r="5">
@@ -1609,10 +1637,16 @@
         <v>321264.5539419306</v>
       </c>
       <c r="CO5" t="n">
-        <v>337229.0981265496</v>
+        <v>337259.7939024529</v>
       </c>
       <c r="CP5" t="n">
-        <v>336386.3081576513</v>
+        <v>335709.5561221052</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>319415.9029585012</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>297793.3834739696</v>
       </c>
     </row>
     <row r="6">
@@ -1877,16 +1911,16 @@
         <v>644366.4526068447</v>
       </c>
       <c r="CI6" t="n">
-        <v>643699.4157216016</v>
+        <v>643699.3733734152</v>
       </c>
       <c r="CJ6" t="n">
-        <v>668187.2357270386</v>
+        <v>668187.2210307848</v>
       </c>
       <c r="CK6" t="n">
-        <v>715347.5799726403</v>
+        <v>715347.5640264791</v>
       </c>
       <c r="CL6" t="n">
-        <v>686295.2960091106</v>
+        <v>686295.3114427932</v>
       </c>
       <c r="CM6" t="n">
         <v>672197.7070856655</v>
@@ -1895,10 +1929,16 @@
         <v>679680.7837708995</v>
       </c>
       <c r="CO6" t="n">
-        <v>664583.7660971405</v>
+        <v>665103.0814218218</v>
       </c>
       <c r="CP6" t="n">
-        <v>625675.7875974907</v>
+        <v>630052.2359008827</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>577447.8362319805</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>566427.8837809025</v>
       </c>
     </row>
     <row r="7">
@@ -2163,16 +2203,16 @@
         <v>15589.62393888031</v>
       </c>
       <c r="CI7" t="n">
-        <v>17219.45968022097</v>
+        <v>17219.46682836717</v>
       </c>
       <c r="CJ7" t="n">
-        <v>19300.44462793013</v>
+        <v>19300.43341038662</v>
       </c>
       <c r="CK7" t="n">
-        <v>20738.32377522018</v>
+        <v>20738.34909460605</v>
       </c>
       <c r="CL7" t="n">
-        <v>19443.60206916793</v>
+        <v>19443.61832522879</v>
       </c>
       <c r="CM7" t="n">
         <v>23130.55030858838</v>
@@ -2181,10 +2221,16 @@
         <v>23768.04829131841</v>
       </c>
       <c r="CO7" t="n">
-        <v>21195.88087765874</v>
+        <v>20788.75383022141</v>
       </c>
       <c r="CP7" t="n">
-        <v>26312.36568228687</v>
+        <v>29479.20945527347</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>27924.91476126578</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>25043.45850516006</v>
       </c>
     </row>
     <row r="8">
@@ -2446,31 +2492,37 @@
         <v>6725710.820771754</v>
       </c>
       <c r="CH8" t="n">
-        <v>6770172.810582455</v>
+        <v>6770171.804515377</v>
       </c>
       <c r="CI8" t="n">
-        <v>6901673.727207369</v>
+        <v>6901672.740100089</v>
       </c>
       <c r="CJ8" t="n">
-        <v>6927226.40353269</v>
+        <v>6927166.876177841</v>
       </c>
       <c r="CK8" t="n">
-        <v>6990974.501415295</v>
+        <v>6990862.749234554</v>
       </c>
       <c r="CL8" t="n">
-        <v>6971791.497834447</v>
+        <v>6971750.303411537</v>
       </c>
       <c r="CM8" t="n">
-        <v>7070332.280190888</v>
+        <v>7070275.284513407</v>
       </c>
       <c r="CN8" t="n">
-        <v>7092627.465371213</v>
+        <v>7092306.296517713</v>
       </c>
       <c r="CO8" t="n">
-        <v>7092987.30545211</v>
+        <v>7085690.82314112</v>
       </c>
       <c r="CP8" t="n">
-        <v>6877563.777814159</v>
+        <v>6874978.54340424</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6653000.126175749</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>6441654.822795879</v>
       </c>
     </row>
     <row r="9">
@@ -2735,16 +2787,16 @@
         <v>2197398.345381604</v>
       </c>
       <c r="CI9" t="n">
-        <v>2272432.339892589</v>
+        <v>2272432.384738945</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2359639.115487681</v>
+        <v>2359639.089713406</v>
       </c>
       <c r="CK9" t="n">
-        <v>2526413.707785242</v>
+        <v>2526413.706807172</v>
       </c>
       <c r="CL9" t="n">
-        <v>2404795.379894884</v>
+        <v>2404795.362418062</v>
       </c>
       <c r="CM9" t="n">
         <v>2458880.670945703</v>
@@ -2753,10 +2805,16 @@
         <v>2456727.483884744</v>
       </c>
       <c r="CO9" t="n">
-        <v>2480554.540880143</v>
+        <v>2481340.132978971</v>
       </c>
       <c r="CP9" t="n">
-        <v>2342905.009672902</v>
+        <v>2342148.930163201</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>2207842.747521329</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>2117936.884796304</v>
       </c>
     </row>
     <row r="10">
@@ -3021,16 +3079,16 @@
         <v>246406.0743181857</v>
       </c>
       <c r="CI10" t="n">
-        <v>278660.4991494336</v>
+        <v>278660.5406491107</v>
       </c>
       <c r="CJ10" t="n">
-        <v>283154.1207314643</v>
+        <v>283154.0727469185</v>
       </c>
       <c r="CK10" t="n">
-        <v>314627.3093240536</v>
+        <v>314627.3219037708</v>
       </c>
       <c r="CL10" t="n">
-        <v>335819.9705784641</v>
+        <v>335819.9900895662</v>
       </c>
       <c r="CM10" t="n">
         <v>357572.2479326354</v>
@@ -3039,10 +3097,16 @@
         <v>359359.1604325598</v>
       </c>
       <c r="CO10" t="n">
-        <v>366884.3502091584</v>
+        <v>370310.5913437132</v>
       </c>
       <c r="CP10" t="n">
-        <v>377372.8512940902</v>
+        <v>386075.5076008576</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>357319.3439323697</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>356468.5230122337</v>
       </c>
     </row>
     <row r="11">
@@ -3307,16 +3371,16 @@
         <v>486044.645829678</v>
       </c>
       <c r="CI11" t="n">
-        <v>504356.1468681393</v>
+        <v>504356.1353324892</v>
       </c>
       <c r="CJ11" t="n">
-        <v>523642.4114492753</v>
+        <v>523642.4132636286</v>
       </c>
       <c r="CK11" t="n">
-        <v>561388.0532165297</v>
+        <v>561388.0281868783</v>
       </c>
       <c r="CL11" t="n">
-        <v>554281.236223379</v>
+        <v>554281.1888503254</v>
       </c>
       <c r="CM11" t="n">
         <v>560903.2313292085</v>
@@ -3325,10 +3389,16 @@
         <v>558599.830624318</v>
       </c>
       <c r="CO11" t="n">
-        <v>578770.4553299963</v>
+        <v>579381.72648677</v>
       </c>
       <c r="CP11" t="n">
-        <v>580620.4694341148</v>
+        <v>571969.730967389</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>541687.623556765</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>497333.3017741061</v>
       </c>
     </row>
     <row r="12">
@@ -3542,79 +3612,85 @@
         <v>67.81210337990633</v>
       </c>
       <c r="BR12" t="n">
-        <v>71.02249016990785</v>
+        <v>71.02289265070881</v>
       </c>
       <c r="BS12" t="n">
-        <v>73.39122612603541</v>
+        <v>73.39201988956259</v>
       </c>
       <c r="BT12" t="n">
-        <v>75.91891079649743</v>
+        <v>75.91973626290428</v>
       </c>
       <c r="BU12" t="n">
-        <v>78.51993351883547</v>
+        <v>78.52093353894553</v>
       </c>
       <c r="BV12" t="n">
-        <v>80.97097118297097</v>
+        <v>80.97180136482007</v>
       </c>
       <c r="BW12" t="n">
-        <v>83.17530181810339</v>
+        <v>83.17613795185613</v>
       </c>
       <c r="BX12" t="n">
-        <v>85.30280014208354</v>
+        <v>85.30367590930381</v>
       </c>
       <c r="BY12" t="n">
-        <v>87.42938674280974</v>
+        <v>87.42938553107196</v>
       </c>
       <c r="BZ12" t="n">
-        <v>89.54724784279428</v>
+        <v>89.54816920951197</v>
       </c>
       <c r="CA12" t="n">
         <v>91.58193792752535</v>
       </c>
       <c r="CB12" t="n">
-        <v>93.85817755622563</v>
+        <v>93.85934925298611</v>
       </c>
       <c r="CC12" t="n">
-        <v>93.82012538767106</v>
+        <v>93.82137321430886</v>
       </c>
       <c r="CD12" t="n">
-        <v>93.83521922718728</v>
+        <v>93.8361199522994</v>
       </c>
       <c r="CE12" t="n">
-        <v>93.87444174851967</v>
+        <v>93.87305685977317</v>
       </c>
       <c r="CF12" t="n">
-        <v>93.72050419053122</v>
+        <v>93.71830368647231</v>
       </c>
       <c r="CG12" t="n">
-        <v>93.64959407024533</v>
+        <v>93.64957938149068</v>
       </c>
       <c r="CH12" t="n">
-        <v>93.5433381708585</v>
+        <v>93.54331676478182</v>
       </c>
       <c r="CI12" t="n">
-        <v>93.71612194939824</v>
+        <v>93.7162364674995</v>
       </c>
       <c r="CJ12" t="n">
-        <v>93.56470903975595</v>
+        <v>93.56434443677955</v>
       </c>
       <c r="CK12" t="n">
-        <v>93.40955100471105</v>
+        <v>93.41682417630001</v>
       </c>
       <c r="CL12" t="n">
-        <v>93.25758112071657</v>
+        <v>93.27938551147822</v>
       </c>
       <c r="CM12" t="n">
-        <v>93.26329701481473</v>
+        <v>93.29925009775476</v>
       </c>
       <c r="CN12" t="n">
-        <v>93.30984627471504</v>
+        <v>93.34311352033326</v>
       </c>
       <c r="CO12" t="n">
-        <v>93.26250389258888</v>
+        <v>93.2625984310878</v>
       </c>
       <c r="CP12" t="n">
-        <v>93.06410047287868</v>
+        <v>93.12773421540908</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>92.85267234082497</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>92.88227413969025</v>
       </c>
     </row>
     <row r="13">
@@ -3766,31 +3842,37 @@
         <v>1.696977693097154</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.553205374639133</v>
+        <v>1.553205517402536</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.690747434590166</v>
+        <v>1.690747574879894</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.741018820845275</v>
+        <v>1.74102787431195</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.827890916453528</v>
+        <v>1.827908129179393</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.831872939575915</v>
+        <v>1.831879378365695</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.828552367094083</v>
+        <v>1.828561091154042</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.789722902630282</v>
+        <v>1.789770922103026</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.836457881320817</v>
+        <v>1.836974989856982</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.930570984719582</v>
+        <v>1.903522891441383</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>1.879468084017382</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>1.914575818672104</v>
       </c>
     </row>
     <row r="14">
@@ -3942,31 +4024,37 @@
         <v>1.860524430055871</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.783986433478392</v>
+        <v>1.783986597454114</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.913979288167808</v>
+        <v>1.913979566050461</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.016744764528502</v>
+        <v>2.01675557076985</v>
       </c>
       <c r="CK14" t="n">
-        <v>2.07818720042203</v>
+        <v>2.078207043303525</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.131231790274867</v>
+        <v>2.131239081522522</v>
       </c>
       <c r="CM14" t="n">
-        <v>2.260179907791319</v>
+        <v>2.260190691154917</v>
       </c>
       <c r="CN14" t="n">
-        <v>2.207638892952732</v>
+        <v>2.207698125393403</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.380864992047103</v>
+        <v>2.381548381233684</v>
       </c>
       <c r="CP14" t="n">
-        <v>2.460148192721821</v>
+        <v>2.45990440006001</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>2.486702986067423</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>2.451983496005359</v>
       </c>
     </row>
     <row r="15">
@@ -4086,31 +4174,37 @@
         <v>1.937045358706923</v>
       </c>
       <c r="CH15" t="n">
-        <v>2.012973372654504</v>
+        <v>2.01297355767764</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.075749116871217</v>
+        <v>2.07574928910645</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2.159350589993769</v>
+        <v>2.159361818826205</v>
       </c>
       <c r="CK15" t="n">
-        <v>2.289191164303251</v>
+        <v>2.289212720961588</v>
       </c>
       <c r="CL15" t="n">
-        <v>2.500441953461356</v>
+        <v>2.500450742182313</v>
       </c>
       <c r="CM15" t="n">
-        <v>2.635243202846675</v>
+        <v>2.635255775644765</v>
       </c>
       <c r="CN15" t="n">
-        <v>2.68379493576048</v>
+        <v>2.683866943788973</v>
       </c>
       <c r="CO15" t="n">
-        <v>2.79848648612962</v>
+        <v>2.799271338621413</v>
       </c>
       <c r="CP15" t="n">
-        <v>2.880104208645089</v>
+        <v>2.874209693225611</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>2.858961099613064</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>2.764238622827508</v>
       </c>
     </row>
     <row r="16">
@@ -4372,31 +4466,37 @@
         <v>5.8687635583353</v>
       </c>
       <c r="CH16" t="n">
-        <v>5.886998850865717</v>
+        <v>5.886999391971229</v>
       </c>
       <c r="CI16" t="n">
-        <v>5.717949217567194</v>
+        <v>5.717949315837073</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5.831009212716891</v>
+        <v>5.831039406281025</v>
       </c>
       <c r="CK16" t="n">
-        <v>6.029296065868802</v>
+        <v>6.029352707621845</v>
       </c>
       <c r="CL16" t="n">
-        <v>5.850449314300397</v>
+        <v>5.850470009419446</v>
       </c>
       <c r="CM16" t="n">
-        <v>5.626836212012798</v>
+        <v>5.626863057761038</v>
       </c>
       <c r="CN16" t="n">
-        <v>5.677949288323195</v>
+        <v>5.678101631532689</v>
       </c>
       <c r="CO16" t="n">
-        <v>5.515030282547122</v>
+        <v>5.520385254079196</v>
       </c>
       <c r="CP16" t="n">
-        <v>5.356970320748997</v>
+        <v>5.394252891050024</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>5.16849939389979</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>5.257812699288817</v>
       </c>
     </row>
     <row r="17">
@@ -4658,31 +4758,37 @@
         <v>0.1496123196328156</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.1424284238298382</v>
+        <v>0.1424284369211955</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.1529595857952946</v>
+        <v>0.1529596619837376</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.1684274473045561</v>
+        <v>0.1684282252519795</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.1747926426974573</v>
+        <v>0.1747945020758352</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.1657505290427974</v>
+        <v>0.1657512502121057</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.193621335967399</v>
+        <v>0.19362225973867</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.1985546393290584</v>
+        <v>0.1985599666839676</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.1758934401784094</v>
+        <v>0.1725475844281232</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.2252837089476507</v>
+        <v>0.2523890905689831</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.249944490155338</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.2324635102418003</v>
       </c>
     </row>
     <row r="18">
@@ -4944,31 +5050,37 @@
         <v>60.74771626223292</v>
       </c>
       <c r="CH18" t="n">
-        <v>61.85300211520954</v>
+        <v>61.85299860891519</v>
       </c>
       <c r="CI18" t="n">
-        <v>61.30721719570005</v>
+        <v>61.30721351424035</v>
       </c>
       <c r="CJ18" t="n">
-        <v>60.45120112721767</v>
+        <v>60.45099600463124</v>
       </c>
       <c r="CK18" t="n">
-        <v>58.92332096738828</v>
+        <v>58.92293392104126</v>
       </c>
       <c r="CL18" t="n">
-        <v>59.43230709162462</v>
+        <v>59.43216481768147</v>
       </c>
       <c r="CM18" t="n">
-        <v>59.18437579566312</v>
+        <v>59.18418106350274</v>
       </c>
       <c r="CN18" t="n">
-        <v>59.25072479748139</v>
+        <v>59.24963146694009</v>
       </c>
       <c r="CO18" t="n">
-        <v>58.86096197175681</v>
+        <v>58.81155001028257</v>
       </c>
       <c r="CP18" t="n">
-        <v>58.88497807831193</v>
+        <v>58.86079085274341</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>59.5482829135419</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>59.79404528190911</v>
       </c>
     </row>
     <row r="19">
@@ -5182,79 +5294,85 @@
         <v>32.18789662009367</v>
       </c>
       <c r="BR19" t="n">
-        <v>28.97750983009216</v>
+        <v>28.97710734929118</v>
       </c>
       <c r="BS19" t="n">
-        <v>26.60877387396459</v>
+        <v>26.60798011043741</v>
       </c>
       <c r="BT19" t="n">
-        <v>24.08108920350257</v>
+        <v>24.08026373709572</v>
       </c>
       <c r="BU19" t="n">
-        <v>21.48006648116453</v>
+        <v>21.47906646105448</v>
       </c>
       <c r="BV19" t="n">
-        <v>19.02902881702903</v>
+        <v>19.02819863517993</v>
       </c>
       <c r="BW19" t="n">
-        <v>16.8246981818966</v>
+        <v>16.82386204814387</v>
       </c>
       <c r="BX19" t="n">
-        <v>14.69719985791646</v>
+        <v>14.6963240906962</v>
       </c>
       <c r="BY19" t="n">
-        <v>12.57061325719027</v>
+        <v>12.57061446892804</v>
       </c>
       <c r="BZ19" t="n">
-        <v>10.45275215720572</v>
+        <v>10.45183079048804</v>
       </c>
       <c r="CA19" t="n">
         <v>8.418062072474658</v>
       </c>
       <c r="CB19" t="n">
-        <v>6.141822443774374</v>
+        <v>6.140650747013894</v>
       </c>
       <c r="CC19" t="n">
-        <v>6.179874612328953</v>
+        <v>6.178626785691128</v>
       </c>
       <c r="CD19" t="n">
-        <v>6.164780772812721</v>
+        <v>6.163880047700603</v>
       </c>
       <c r="CE19" t="n">
-        <v>6.125558251480338</v>
+        <v>6.126943140226826</v>
       </c>
       <c r="CF19" t="n">
-        <v>6.279495809468782</v>
+        <v>6.281696313527689</v>
       </c>
       <c r="CG19" t="n">
-        <v>6.35040592975468</v>
+        <v>6.350420618509308</v>
       </c>
       <c r="CH19" t="n">
-        <v>6.4566618291415</v>
+        <v>6.456683235218177</v>
       </c>
       <c r="CI19" t="n">
-        <v>6.283878050601756</v>
+        <v>6.283763532500506</v>
       </c>
       <c r="CJ19" t="n">
-        <v>6.435290960244044</v>
+        <v>6.435655563220453</v>
       </c>
       <c r="CK19" t="n">
-        <v>6.590448995288957</v>
+        <v>6.583175823699984</v>
       </c>
       <c r="CL19" t="n">
-        <v>6.742418879283439</v>
+        <v>6.720614488521767</v>
       </c>
       <c r="CM19" t="n">
-        <v>6.73670298518527</v>
+        <v>6.700749902245229</v>
       </c>
       <c r="CN19" t="n">
-        <v>6.690153725284952</v>
+        <v>6.65688647966673</v>
       </c>
       <c r="CO19" t="n">
-        <v>6.737496107411117</v>
+        <v>6.7374015689122</v>
       </c>
       <c r="CP19" t="n">
-        <v>6.935899527121324</v>
+        <v>6.872265784590921</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>7.147327659175043</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>7.117725860309738</v>
       </c>
     </row>
     <row r="20">
@@ -5516,31 +5634,37 @@
         <v>20.58844683518252</v>
       </c>
       <c r="CH20" t="n">
-        <v>20.07565955959004</v>
+        <v>20.07566140485116</v>
       </c>
       <c r="CI20" t="n">
-        <v>20.18590106268318</v>
+        <v>20.18590313597577</v>
       </c>
       <c r="CJ20" t="n">
-        <v>20.59164959373233</v>
+        <v>20.59175644738355</v>
       </c>
       <c r="CK20" t="n">
-        <v>21.29383904491459</v>
+        <v>21.29403955466173</v>
       </c>
       <c r="CL20" t="n">
-        <v>20.50011644135182</v>
+        <v>20.50018834755014</v>
       </c>
       <c r="CM20" t="n">
-        <v>20.58281165563745</v>
+        <v>20.58290985664401</v>
       </c>
       <c r="CN20" t="n">
-        <v>20.52312556394014</v>
+        <v>20.52367621324299</v>
       </c>
       <c r="CO20" t="n">
-        <v>20.58481429783246</v>
+        <v>20.59523382626534</v>
       </c>
       <c r="CP20" t="n">
-        <v>20.0597064005713</v>
+        <v>20.0525336121339</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>19.7614973793161</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>19.65954672789654</v>
       </c>
     </row>
     <row r="21">
@@ -5802,31 +5926,37 @@
         <v>2.512732716467671</v>
       </c>
       <c r="CH21" t="n">
-        <v>2.251191492805042</v>
+        <v>2.251191699724077</v>
       </c>
       <c r="CI21" t="n">
-        <v>2.475327061299548</v>
+        <v>2.475327635329305</v>
       </c>
       <c r="CJ21" t="n">
-        <v>2.470975496572341</v>
+        <v>2.470987927139925</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.651831433322185</v>
+        <v>2.651856510889148</v>
       </c>
       <c r="CL21" t="n">
-        <v>2.862758535610119</v>
+        <v>2.862768764152213</v>
       </c>
       <c r="CM21" t="n">
-        <v>2.993167712221547</v>
+        <v>2.993181992684638</v>
       </c>
       <c r="CN21" t="n">
-        <v>3.002031450573186</v>
+        <v>3.002111997102041</v>
       </c>
       <c r="CO21" t="n">
-        <v>3.044579787855337</v>
+        <v>3.07359443217896</v>
       </c>
       <c r="CP21" t="n">
-        <v>3.231026682367616</v>
+        <v>3.305422637000461</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>3.198219296472001</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>3.308884998174663</v>
       </c>
     </row>
     <row r="22">
@@ -6088,31 +6218,37 @@
         <v>4.638180826288825</v>
       </c>
       <c r="CH22" t="n">
-        <v>4.440554376927777</v>
+        <v>4.44055478508285</v>
       </c>
       <c r="CI22" t="n">
-        <v>4.48017003732555</v>
+        <v>4.480170306596948</v>
       </c>
       <c r="CJ22" t="n">
-        <v>4.569622947088657</v>
+        <v>4.56964672540428</v>
       </c>
       <c r="CK22" t="n">
-        <v>4.731650564629889</v>
+        <v>4.731694910265679</v>
       </c>
       <c r="CL22" t="n">
-        <v>4.7250714047581</v>
+        <v>4.725087608914101</v>
       </c>
       <c r="CM22" t="n">
-        <v>4.695211810765615</v>
+        <v>4.695234211715181</v>
       </c>
       <c r="CN22" t="n">
-        <v>4.666457529009517</v>
+        <v>4.666582733212802</v>
       </c>
       <c r="CO22" t="n">
-        <v>4.80291086033233</v>
+        <v>4.80889418305373</v>
       </c>
       <c r="CP22" t="n">
-        <v>4.971211422966013</v>
+        <v>4.896973931776217</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>4.848424356917008</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>4.616448844984095</v>
       </c>
     </row>
     <row r="23">
@@ -6326,79 +6462,85 @@
         <v>10932276.98549128</v>
       </c>
       <c r="BR23" t="n">
-        <v>10931208.54488947</v>
+        <v>10931146.5986436</v>
       </c>
       <c r="BS23" t="n">
-        <v>10974140.0307982</v>
+        <v>10974021.34116257</v>
       </c>
       <c r="BT23" t="n">
-        <v>11000711.44671184</v>
+        <v>11000591.83726378</v>
       </c>
       <c r="BU23" t="n">
-        <v>10720647.437134</v>
+        <v>10720510.90204015</v>
       </c>
       <c r="BV23" t="n">
-        <v>10907650.7307185</v>
+        <v>10907538.89754324</v>
       </c>
       <c r="BW23" t="n">
-        <v>11128021.88390438</v>
+        <v>11127910.0187117</v>
       </c>
       <c r="BX23" t="n">
-        <v>11302847.93206093</v>
+        <v>11302731.89176597</v>
       </c>
       <c r="BY23" t="n">
-        <v>11452317.49993419</v>
+        <v>11452317.65865892</v>
       </c>
       <c r="BZ23" t="n">
-        <v>11612989.97490898</v>
+        <v>11612870.48812829</v>
       </c>
       <c r="CA23" t="n">
         <v>11475856.35362542</v>
       </c>
       <c r="CB23" t="n">
-        <v>11405660.72769838</v>
+        <v>11405518.34469837</v>
       </c>
       <c r="CC23" t="n">
-        <v>11432752.2634445</v>
+        <v>11432600.2075501</v>
       </c>
       <c r="CD23" t="n">
-        <v>11607734.00882884</v>
+        <v>11607622.58715537</v>
       </c>
       <c r="CE23" t="n">
-        <v>11735679.38604653</v>
+        <v>11735852.5199665</v>
       </c>
       <c r="CF23" t="n">
-        <v>11654349.77952573</v>
+        <v>11654623.4234457</v>
       </c>
       <c r="CG23" t="n">
-        <v>11822309.79093453</v>
+        <v>11822311.64524086</v>
       </c>
       <c r="CH23" t="n">
-        <v>11701084.26167855</v>
+        <v>11701085.86379834</v>
       </c>
       <c r="CI23" t="n">
-        <v>12012364.78435659</v>
+        <v>12012349.10892488</v>
       </c>
       <c r="CJ23" t="n">
-        <v>12247356.96624813</v>
+        <v>12247341.00457641</v>
       </c>
       <c r="CK23" t="n">
-        <v>12701622.97977304</v>
+        <v>12700514.46996607</v>
       </c>
       <c r="CL23" t="n">
-        <v>12578754.8834353</v>
+        <v>12575770.35222711</v>
       </c>
       <c r="CM23" t="n">
-        <v>12809199.46543708</v>
+        <v>12804202.32153683</v>
       </c>
       <c r="CN23" t="n">
-        <v>12828799.22151843</v>
+        <v>12823882.9970351</v>
       </c>
       <c r="CO23" t="n">
-        <v>12920959.22308198</v>
+        <v>12918499.16384558</v>
       </c>
       <c r="CP23" t="n">
-        <v>12550121.33944045</v>
+        <v>12541983.27640014</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>12032444.88925845</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>11598629.43033559</v>
       </c>
     </row>
     <row r="24">
@@ -6612,79 +6754,85 @@
         <v>3518870.014312224</v>
       </c>
       <c r="BR24" t="n">
-        <v>3167592.030643221</v>
+        <v>3167530.084397348</v>
       </c>
       <c r="BS24" t="n">
-        <v>2920084.105407321</v>
+        <v>2919965.415771694</v>
       </c>
       <c r="BT24" t="n">
-        <v>2649091.136502596</v>
+        <v>2648971.527054543</v>
       </c>
       <c r="BU24" t="n">
-        <v>2302802.196707644</v>
+        <v>2302665.661613795</v>
       </c>
       <c r="BV24" t="n">
-        <v>2075620.000809301</v>
+        <v>2075508.167634043</v>
       </c>
       <c r="BW24" t="n">
-        <v>1872256.095582316</v>
+        <v>1872144.230389637</v>
       </c>
       <c r="BX24" t="n">
-        <v>1661202.150211373</v>
+        <v>1661086.109916404</v>
       </c>
       <c r="BY24" t="n">
-        <v>1439626.541902248</v>
+        <v>1439626.700626978</v>
       </c>
       <c r="BZ24" t="n">
-        <v>1213877.060118383</v>
+        <v>1213757.573337691</v>
       </c>
       <c r="CA24" t="n">
         <v>966044.7111962149</v>
       </c>
       <c r="CB24" t="n">
-        <v>700515.4304345391</v>
+        <v>700373.0474345273</v>
       </c>
       <c r="CC24" t="n">
-        <v>706529.7546190703</v>
+        <v>706377.6987246699</v>
       </c>
       <c r="CD24" t="n">
-        <v>715591.3543355234</v>
+        <v>715479.9326620586</v>
       </c>
       <c r="CE24" t="n">
-        <v>718875.87699925</v>
+        <v>719049.0109192246</v>
       </c>
       <c r="CF24" t="n">
-        <v>731834.4060261523</v>
+        <v>732108.049946123</v>
       </c>
       <c r="CG24" t="n">
-        <v>750764.6619974746</v>
+        <v>750766.5163038027</v>
       </c>
       <c r="CH24" t="n">
-        <v>755499.4411194824</v>
+        <v>755502.0493063516</v>
       </c>
       <c r="CI24" t="n">
-        <v>754842.3540423984</v>
+        <v>754827.6127032714</v>
       </c>
       <c r="CJ24" t="n">
-        <v>788153.0557177851</v>
+        <v>788196.6827076016</v>
       </c>
       <c r="CK24" t="n">
-        <v>837093.9840558438</v>
+        <v>836097.1980723243</v>
       </c>
       <c r="CL24" t="n">
-        <v>848112.3440395293</v>
+        <v>845169.044335</v>
       </c>
       <c r="CM24" t="n">
-        <v>862917.7227664356</v>
+        <v>857977.5745436602</v>
       </c>
       <c r="CN24" t="n">
-        <v>858266.3890277422</v>
+        <v>853671.3333979101</v>
       </c>
       <c r="CO24" t="n">
-        <v>870549.1246953262</v>
+        <v>870371.1653448418</v>
       </c>
       <c r="CP24" t="n">
-        <v>870463.8066354024</v>
+        <v>861918.4254131621</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>859998.2616449629</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>825558.6464044922</v>
       </c>
     </row>
   </sheetData>
